--- a/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.464310883744247</v>
+        <v>2.464310883744133</v>
       </c>
       <c r="C2">
-        <v>0.5399141436427328</v>
+        <v>0.5399141436426191</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2867846561521006</v>
+        <v>0.2867846561520793</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,16 +430,16 @@
         <v>0.8583961554327288</v>
       </c>
       <c r="H2">
-        <v>0.5669195646464118</v>
+        <v>0.566919564646426</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6713443106330104</v>
+        <v>0.6713443106330459</v>
       </c>
       <c r="K2">
-        <v>0.4671894169552928</v>
+        <v>0.4671894169552573</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.129380602318122</v>
+        <v>2.129380602318179</v>
       </c>
       <c r="C3">
-        <v>0.4660073004698688</v>
+        <v>0.4660073004699825</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2467993342692552</v>
+        <v>0.2467993342692623</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7829083724104535</v>
+        <v>0.7829083724104606</v>
       </c>
       <c r="H3">
         <v>0.5348918006946661</v>
@@ -477,7 +477,7 @@
         <v>0.5798095051787797</v>
       </c>
       <c r="K3">
-        <v>0.4016897029473085</v>
+        <v>0.4016897029473228</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.925909786753294</v>
+        <v>1.925909786753351</v>
       </c>
       <c r="C4">
-        <v>0.4212248336160656</v>
+        <v>0.4212248336162077</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2227744157267537</v>
+        <v>0.2227744157267608</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5242355146408073</v>
+        <v>0.5242355146407931</v>
       </c>
       <c r="K4">
-        <v>0.362225738834475</v>
+        <v>0.3622257388344821</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.843447955801935</v>
+        <v>1.843447955801963</v>
       </c>
       <c r="C5">
-        <v>0.4030995369080586</v>
+        <v>0.4030995369079449</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7226907454386122</v>
+        <v>0.7226907454385909</v>
       </c>
       <c r="H5">
         <v>0.5108657141539297</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5017196439056235</v>
+        <v>0.5017196439056022</v>
       </c>
       <c r="K5">
-        <v>0.3463052626770562</v>
+        <v>0.3463052626770278</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.829780087261213</v>
+        <v>1.829780087261327</v>
       </c>
       <c r="C6">
-        <v>0.4000966107282977</v>
+        <v>0.4000966107281556</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2114975067005886</v>
+        <v>0.2114975067005602</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.7199181163921651</v>
+        <v>0.7199181163921722</v>
       </c>
       <c r="H6">
-        <v>0.509800589323774</v>
+        <v>0.5098005893237669</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4979880641150984</v>
+        <v>0.4979880641150842</v>
       </c>
       <c r="K6">
-        <v>0.3436706575387589</v>
+        <v>0.3436706575387447</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.924795956222141</v>
+        <v>1.924795956222084</v>
       </c>
       <c r="C7">
         <v>0.420979920579299</v>
@@ -611,25 +611,25 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2226434773244961</v>
+        <v>0.2226434773245032</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.7393984750494411</v>
+        <v>0.7393984750494553</v>
       </c>
       <c r="H7">
-        <v>0.5173672748724698</v>
+        <v>0.517367274872484</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5239313615023775</v>
+        <v>0.5239313615023988</v>
       </c>
       <c r="K7">
-        <v>0.3620104113542268</v>
+        <v>0.3620104113542411</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.348315950126221</v>
+        <v>2.348315950126107</v>
       </c>
       <c r="C8">
-        <v>0.5142907439869191</v>
+        <v>0.5142907439870328</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2728768386801406</v>
+        <v>0.2728768386801335</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,13 +658,13 @@
         <v>0.8316835352410337</v>
       </c>
       <c r="H8">
-        <v>0.5553822225663509</v>
+        <v>0.5553822225663652</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6396354883419448</v>
+        <v>0.6396354883419306</v>
       </c>
       <c r="K8">
         <v>0.444431150550173</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.200842361442369</v>
+        <v>3.200842361442199</v>
       </c>
       <c r="C9">
-        <v>0.7033281139082703</v>
+        <v>0.7033281139082987</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.376492291896696</v>
+        <v>0.3764922918967031</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842826</v>
       </c>
       <c r="G9">
-        <v>1.040765475405465</v>
+        <v>1.040765475405451</v>
       </c>
       <c r="H9">
-        <v>0.6501013868940149</v>
+        <v>0.6501013868940362</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.872891635204013</v>
+        <v>0.8728916352039988</v>
       </c>
       <c r="K9">
-        <v>0.6134463133170058</v>
+        <v>0.6134463133170129</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.848079817759412</v>
+        <v>3.848079817759526</v>
       </c>
       <c r="C10">
-        <v>0.8479983524058241</v>
+        <v>0.8479983524057957</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.457207610004545</v>
+        <v>0.4572076100046019</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.21739408745259</v>
+        <v>1.217394087452604</v>
       </c>
       <c r="H10">
-        <v>0.7358549246278017</v>
+        <v>0.7358549246278088</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.05031248731818</v>
+        <v>1.050312487318195</v>
       </c>
       <c r="K10">
-        <v>0.7443610938148808</v>
+        <v>0.7443610938149092</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.14900748681373</v>
+        <v>4.149007486813787</v>
       </c>
       <c r="C11">
-        <v>0.9156173540899317</v>
+        <v>0.9156173540901307</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4953103463946888</v>
+        <v>0.4953103463946817</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,13 +772,13 @@
         <v>1.304276509700529</v>
       </c>
       <c r="H11">
-        <v>0.7793825006796737</v>
+        <v>0.7793825006796808</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.132905367403623</v>
+        <v>1.132905367403652</v>
       </c>
       <c r="K11">
         <v>0.8059670082905086</v>
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.264083690513189</v>
+        <v>4.264083690513075</v>
       </c>
       <c r="C12">
-        <v>0.9415364124324981</v>
+        <v>0.9415364124322991</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.338265523803116</v>
+        <v>1.33826552380313</v>
       </c>
       <c r="H12">
-        <v>0.7966131096562563</v>
+        <v>0.7966131096562705</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>1.16450691032081</v>
       </c>
       <c r="K12">
-        <v>0.8296479331803965</v>
+        <v>0.829647933180425</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.239246826739929</v>
+        <v>4.239246826739873</v>
       </c>
       <c r="C13">
-        <v>0.935939417209795</v>
+        <v>0.9359394172096529</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5068061725932012</v>
+        <v>0.5068061725932154</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236084</v>
       </c>
       <c r="G13">
-        <v>1.330894364901923</v>
+        <v>1.330894364901908</v>
       </c>
       <c r="H13">
-        <v>0.7928672259643008</v>
+        <v>0.7928672259643079</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.157685526189567</v>
+        <v>1.157685526189539</v>
       </c>
       <c r="K13">
-        <v>0.8245311641538393</v>
+        <v>0.8245311641538535</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.158451232708444</v>
+        <v>4.158451232708273</v>
       </c>
       <c r="C14">
-        <v>0.9177431205247899</v>
+        <v>0.9177431205246762</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4965119037862493</v>
+        <v>0.4965119037862351</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.307050060531566</v>
+        <v>1.30705006053158</v>
       </c>
       <c r="H14">
-        <v>0.7807844777391537</v>
+        <v>0.7807844777391466</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.135498382981524</v>
+        <v>1.13549838298151</v>
       </c>
       <c r="K14">
         <v>0.8079078390716603</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.109113650833876</v>
+        <v>4.109113650833706</v>
       </c>
       <c r="C15">
-        <v>0.9066398656229353</v>
+        <v>0.90663986562285</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.490238419464994</v>
+        <v>0.4902384194650296</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.292591280796714</v>
+        <v>1.292591280796685</v>
       </c>
       <c r="H15">
-        <v>0.7734839590958984</v>
+        <v>0.7734839590958842</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.121952248516749</v>
+        <v>1.12195224851672</v>
       </c>
       <c r="K15">
-        <v>0.7977732610360206</v>
+        <v>0.7977732610360135</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.828559628779203</v>
+        <v>3.82855962877926</v>
       </c>
       <c r="C16">
-        <v>0.8436200486698908</v>
+        <v>0.8436200486696066</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4547484719679815</v>
+        <v>0.4547484719680028</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,16 +962,16 @@
         <v>1.211859851616211</v>
       </c>
       <c r="H16">
-        <v>0.7331092742892125</v>
+        <v>0.7331092742892054</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.044957239175787</v>
+        <v>1.044957239175744</v>
       </c>
       <c r="K16">
-        <v>0.740380984437337</v>
+        <v>0.7403809844373228</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4333563878472333</v>
+        <v>0.4333563878472404</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,16 +1000,16 @@
         <v>1.164106695842065</v>
       </c>
       <c r="H17">
-        <v>0.7095633798526535</v>
+        <v>0.7095633798526464</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.998242146996958</v>
+        <v>0.9982421469969722</v>
       </c>
       <c r="K17">
-        <v>0.7057363285553393</v>
+        <v>0.7057363285553322</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.560872196293644</v>
+        <v>3.560872196293587</v>
       </c>
       <c r="C18">
-        <v>0.783674751288487</v>
+        <v>0.7836747512885154</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4211800333205531</v>
+        <v>0.4211800333205744</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.13724521693679</v>
+        <v>1.137245216936805</v>
       </c>
       <c r="H18">
-        <v>0.6964390356933379</v>
+        <v>0.6964390356933237</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9715464353650702</v>
+        <v>0.9715464353650844</v>
       </c>
       <c r="K18">
-        <v>0.6859989352939238</v>
+        <v>0.6859989352939166</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>3.528003387625461</v>
       </c>
       <c r="C19">
-        <v>0.7763264225715147</v>
+        <v>0.7763264225716853</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4170782186870809</v>
+        <v>0.4170782186870881</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>1.128250060367662</v>
+        <v>1.128250060367634</v>
       </c>
       <c r="H19">
         <v>0.6920644906929283</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9625359956291533</v>
+        <v>0.9625359956291391</v>
       </c>
       <c r="K19">
-        <v>0.6793470985957697</v>
+        <v>0.6793470985957484</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.676305711357145</v>
+        <v>3.676305711357372</v>
       </c>
       <c r="C20">
-        <v>0.8095028153454678</v>
+        <v>0.8095028153455814</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4356201285769288</v>
+        <v>0.4356201285769004</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.003196712694731</v>
+        <v>1.003196712694717</v>
       </c>
       <c r="K20">
-        <v>0.7094043328265158</v>
+        <v>0.7094043328265087</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.182150797175325</v>
+        <v>4.182150797175211</v>
       </c>
       <c r="C21">
-        <v>0.9230788502487144</v>
+        <v>0.9230788502484586</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4995288251308097</v>
+        <v>0.499528825130831</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.142005979144827</v>
+        <v>1.142005979144812</v>
       </c>
       <c r="K21">
         <v>0.8127804605269375</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.519393325089084</v>
+        <v>4.519393325089027</v>
       </c>
       <c r="C22">
-        <v>0.9991636087920597</v>
+        <v>0.9991636087917755</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5426988877300118</v>
+        <v>0.5426988877300261</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.415151175035888</v>
+        <v>1.415151175035874</v>
       </c>
       <c r="H22">
-        <v>0.8359697202233889</v>
+        <v>0.835969720223396</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.23465385465164</v>
+        <v>1.234653854651626</v>
       </c>
       <c r="K22">
-        <v>0.882427875084943</v>
+        <v>0.8824278750849146</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.338723699165598</v>
+        <v>4.338723699165541</v>
       </c>
       <c r="C23">
-        <v>0.9583661860248753</v>
+        <v>0.9583661860247616</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5195159775400882</v>
+        <v>0.5195159775400597</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.360533703635411</v>
+        <v>1.360533703635397</v>
       </c>
       <c r="H23">
-        <v>0.8079591505508148</v>
+        <v>0.8079591505508219</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.185009375478884</v>
+        <v>1.18500937547887</v>
       </c>
       <c r="K23">
-        <v>0.8450438401260527</v>
+        <v>0.8450438401260669</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.668135551593139</v>
+        <v>3.668135551593025</v>
       </c>
       <c r="C24">
-        <v>0.8076736700906224</v>
+        <v>0.8076736700907361</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4345963134153692</v>
+        <v>0.4345963134153905</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.166855203966406</v>
+        <v>1.166855203966392</v>
       </c>
       <c r="H24">
-        <v>0.7109113099484574</v>
+        <v>0.7109113099484645</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.00095625478744</v>
+        <v>1.000956254787411</v>
       </c>
       <c r="K24">
-        <v>0.7077454707560236</v>
+        <v>0.707745470756052</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.967138380859524</v>
+        <v>2.96713838085941</v>
       </c>
       <c r="C25">
-        <v>0.6513397953493438</v>
+        <v>0.651339795349287</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.34777345653265</v>
+        <v>0.3477734565326358</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.9806293890023028</v>
+        <v>0.980629389002317</v>
       </c>
       <c r="H25">
         <v>0.621946512472519</v>
@@ -1313,7 +1313,7 @@
         <v>0.8089005323478915</v>
       </c>
       <c r="K25">
-        <v>0.5667181899425344</v>
+        <v>0.5667181899425202</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.464310883744133</v>
+        <v>2.464310883744247</v>
       </c>
       <c r="C2">
-        <v>0.5399141436426191</v>
+        <v>0.5399141436427328</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2867846561520793</v>
+        <v>0.2867846561521006</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,16 +430,16 @@
         <v>0.8583961554327288</v>
       </c>
       <c r="H2">
-        <v>0.566919564646426</v>
+        <v>0.5669195646464118</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6713443106330459</v>
+        <v>0.6713443106330104</v>
       </c>
       <c r="K2">
-        <v>0.4671894169552573</v>
+        <v>0.4671894169552928</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.129380602318179</v>
+        <v>2.129380602318122</v>
       </c>
       <c r="C3">
-        <v>0.4660073004699825</v>
+        <v>0.4660073004698688</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2467993342692623</v>
+        <v>0.2467993342692552</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7829083724104606</v>
+        <v>0.7829083724104535</v>
       </c>
       <c r="H3">
         <v>0.5348918006946661</v>
@@ -477,7 +477,7 @@
         <v>0.5798095051787797</v>
       </c>
       <c r="K3">
-        <v>0.4016897029473228</v>
+        <v>0.4016897029473085</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.925909786753351</v>
+        <v>1.925909786753294</v>
       </c>
       <c r="C4">
-        <v>0.4212248336162077</v>
+        <v>0.4212248336160656</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2227744157267608</v>
+        <v>0.2227744157267537</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5242355146407931</v>
+        <v>0.5242355146408073</v>
       </c>
       <c r="K4">
-        <v>0.3622257388344821</v>
+        <v>0.362225738834475</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.843447955801963</v>
+        <v>1.843447955801935</v>
       </c>
       <c r="C5">
-        <v>0.4030995369079449</v>
+        <v>0.4030995369080586</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7226907454385909</v>
+        <v>0.7226907454386122</v>
       </c>
       <c r="H5">
         <v>0.5108657141539297</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5017196439056022</v>
+        <v>0.5017196439056235</v>
       </c>
       <c r="K5">
-        <v>0.3463052626770278</v>
+        <v>0.3463052626770562</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.829780087261327</v>
+        <v>1.829780087261213</v>
       </c>
       <c r="C6">
-        <v>0.4000966107281556</v>
+        <v>0.4000966107282977</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2114975067005602</v>
+        <v>0.2114975067005886</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7199181163921722</v>
+        <v>0.7199181163921651</v>
       </c>
       <c r="H6">
-        <v>0.5098005893237669</v>
+        <v>0.509800589323774</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4979880641150842</v>
+        <v>0.4979880641150984</v>
       </c>
       <c r="K6">
-        <v>0.3436706575387447</v>
+        <v>0.3436706575387589</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.924795956222084</v>
+        <v>1.924795956222141</v>
       </c>
       <c r="C7">
         <v>0.420979920579299</v>
@@ -611,25 +611,25 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2226434773245032</v>
+        <v>0.2226434773244961</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7393984750494553</v>
+        <v>0.7393984750494411</v>
       </c>
       <c r="H7">
-        <v>0.517367274872484</v>
+        <v>0.5173672748724698</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5239313615023988</v>
+        <v>0.5239313615023775</v>
       </c>
       <c r="K7">
-        <v>0.3620104113542411</v>
+        <v>0.3620104113542268</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.348315950126107</v>
+        <v>2.348315950126221</v>
       </c>
       <c r="C8">
-        <v>0.5142907439870328</v>
+        <v>0.5142907439869191</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2728768386801335</v>
+        <v>0.2728768386801406</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,13 +658,13 @@
         <v>0.8316835352410337</v>
       </c>
       <c r="H8">
-        <v>0.5553822225663652</v>
+        <v>0.5553822225663509</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6396354883419306</v>
+        <v>0.6396354883419448</v>
       </c>
       <c r="K8">
         <v>0.444431150550173</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.200842361442199</v>
+        <v>3.200842361442369</v>
       </c>
       <c r="C9">
-        <v>0.7033281139082987</v>
+        <v>0.7033281139082703</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3764922918967031</v>
+        <v>0.376492291896696</v>
       </c>
       <c r="F9">
-        <v>1.895061171842826</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.040765475405451</v>
+        <v>1.040765475405465</v>
       </c>
       <c r="H9">
-        <v>0.6501013868940362</v>
+        <v>0.6501013868940149</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8728916352039988</v>
+        <v>0.872891635204013</v>
       </c>
       <c r="K9">
-        <v>0.6134463133170129</v>
+        <v>0.6134463133170058</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.848079817759526</v>
+        <v>3.848079817759412</v>
       </c>
       <c r="C10">
-        <v>0.8479983524057957</v>
+        <v>0.8479983524058241</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4572076100046019</v>
+        <v>0.457207610004545</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.217394087452604</v>
+        <v>1.21739408745259</v>
       </c>
       <c r="H10">
-        <v>0.7358549246278088</v>
+        <v>0.7358549246278017</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.050312487318195</v>
+        <v>1.05031248731818</v>
       </c>
       <c r="K10">
-        <v>0.7443610938149092</v>
+        <v>0.7443610938148808</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.149007486813787</v>
+        <v>4.14900748681373</v>
       </c>
       <c r="C11">
-        <v>0.9156173540901307</v>
+        <v>0.9156173540899317</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4953103463946817</v>
+        <v>0.4953103463946888</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,13 +772,13 @@
         <v>1.304276509700529</v>
       </c>
       <c r="H11">
-        <v>0.7793825006796808</v>
+        <v>0.7793825006796737</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.132905367403652</v>
+        <v>1.132905367403623</v>
       </c>
       <c r="K11">
         <v>0.8059670082905086</v>
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.264083690513075</v>
+        <v>4.264083690513189</v>
       </c>
       <c r="C12">
-        <v>0.9415364124322991</v>
+        <v>0.9415364124324981</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.33826552380313</v>
+        <v>1.338265523803116</v>
       </c>
       <c r="H12">
-        <v>0.7966131096562705</v>
+        <v>0.7966131096562563</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>1.16450691032081</v>
       </c>
       <c r="K12">
-        <v>0.829647933180425</v>
+        <v>0.8296479331803965</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.239246826739873</v>
+        <v>4.239246826739929</v>
       </c>
       <c r="C13">
-        <v>0.9359394172096529</v>
+        <v>0.935939417209795</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5068061725932154</v>
+        <v>0.5068061725932012</v>
       </c>
       <c r="F13">
-        <v>2.504295469236084</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.330894364901908</v>
+        <v>1.330894364901923</v>
       </c>
       <c r="H13">
-        <v>0.7928672259643079</v>
+        <v>0.7928672259643008</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.157685526189539</v>
+        <v>1.157685526189567</v>
       </c>
       <c r="K13">
-        <v>0.8245311641538535</v>
+        <v>0.8245311641538393</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.158451232708273</v>
+        <v>4.158451232708444</v>
       </c>
       <c r="C14">
-        <v>0.9177431205246762</v>
+        <v>0.9177431205247899</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4965119037862351</v>
+        <v>0.4965119037862493</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.30705006053158</v>
+        <v>1.307050060531566</v>
       </c>
       <c r="H14">
-        <v>0.7807844777391466</v>
+        <v>0.7807844777391537</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.13549838298151</v>
+        <v>1.135498382981524</v>
       </c>
       <c r="K14">
         <v>0.8079078390716603</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.109113650833706</v>
+        <v>4.109113650833876</v>
       </c>
       <c r="C15">
-        <v>0.90663986562285</v>
+        <v>0.9066398656229353</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4902384194650296</v>
+        <v>0.490238419464994</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.292591280796685</v>
+        <v>1.292591280796714</v>
       </c>
       <c r="H15">
-        <v>0.7734839590958842</v>
+        <v>0.7734839590958984</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.12195224851672</v>
+        <v>1.121952248516749</v>
       </c>
       <c r="K15">
-        <v>0.7977732610360135</v>
+        <v>0.7977732610360206</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.82855962877926</v>
+        <v>3.828559628779203</v>
       </c>
       <c r="C16">
-        <v>0.8436200486696066</v>
+        <v>0.8436200486698908</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4547484719680028</v>
+        <v>0.4547484719679815</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,16 +962,16 @@
         <v>1.211859851616211</v>
       </c>
       <c r="H16">
-        <v>0.7331092742892054</v>
+        <v>0.7331092742892125</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.044957239175744</v>
+        <v>1.044957239175787</v>
       </c>
       <c r="K16">
-        <v>0.7403809844373228</v>
+        <v>0.740380984437337</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4333563878472404</v>
+        <v>0.4333563878472333</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,16 +1000,16 @@
         <v>1.164106695842065</v>
       </c>
       <c r="H17">
-        <v>0.7095633798526464</v>
+        <v>0.7095633798526535</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9982421469969722</v>
+        <v>0.998242146996958</v>
       </c>
       <c r="K17">
-        <v>0.7057363285553322</v>
+        <v>0.7057363285553393</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.560872196293587</v>
+        <v>3.560872196293644</v>
       </c>
       <c r="C18">
-        <v>0.7836747512885154</v>
+        <v>0.783674751288487</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4211800333205744</v>
+        <v>0.4211800333205531</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.137245216936805</v>
+        <v>1.13724521693679</v>
       </c>
       <c r="H18">
-        <v>0.6964390356933237</v>
+        <v>0.6964390356933379</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9715464353650844</v>
+        <v>0.9715464353650702</v>
       </c>
       <c r="K18">
-        <v>0.6859989352939166</v>
+        <v>0.6859989352939238</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>3.528003387625461</v>
       </c>
       <c r="C19">
-        <v>0.7763264225716853</v>
+        <v>0.7763264225715147</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4170782186870881</v>
+        <v>0.4170782186870809</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.128250060367634</v>
+        <v>1.128250060367662</v>
       </c>
       <c r="H19">
         <v>0.6920644906929283</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9625359956291391</v>
+        <v>0.9625359956291533</v>
       </c>
       <c r="K19">
-        <v>0.6793470985957484</v>
+        <v>0.6793470985957697</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.676305711357372</v>
+        <v>3.676305711357145</v>
       </c>
       <c r="C20">
-        <v>0.8095028153455814</v>
+        <v>0.8095028153454678</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4356201285769004</v>
+        <v>0.4356201285769288</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.003196712694717</v>
+        <v>1.003196712694731</v>
       </c>
       <c r="K20">
-        <v>0.7094043328265087</v>
+        <v>0.7094043328265158</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.182150797175211</v>
+        <v>4.182150797175325</v>
       </c>
       <c r="C21">
-        <v>0.9230788502484586</v>
+        <v>0.9230788502487144</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.499528825130831</v>
+        <v>0.4995288251308097</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.142005979144812</v>
+        <v>1.142005979144827</v>
       </c>
       <c r="K21">
         <v>0.8127804605269375</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.519393325089027</v>
+        <v>4.519393325089084</v>
       </c>
       <c r="C22">
-        <v>0.9991636087917755</v>
+        <v>0.9991636087920597</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5426988877300261</v>
+        <v>0.5426988877300118</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.415151175035874</v>
+        <v>1.415151175035888</v>
       </c>
       <c r="H22">
-        <v>0.835969720223396</v>
+        <v>0.8359697202233889</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.234653854651626</v>
+        <v>1.23465385465164</v>
       </c>
       <c r="K22">
-        <v>0.8824278750849146</v>
+        <v>0.882427875084943</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.338723699165541</v>
+        <v>4.338723699165598</v>
       </c>
       <c r="C23">
-        <v>0.9583661860247616</v>
+        <v>0.9583661860248753</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5195159775400597</v>
+        <v>0.5195159775400882</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.360533703635397</v>
+        <v>1.360533703635411</v>
       </c>
       <c r="H23">
-        <v>0.8079591505508219</v>
+        <v>0.8079591505508148</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.18500937547887</v>
+        <v>1.185009375478884</v>
       </c>
       <c r="K23">
-        <v>0.8450438401260669</v>
+        <v>0.8450438401260527</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.668135551593025</v>
+        <v>3.668135551593139</v>
       </c>
       <c r="C24">
-        <v>0.8076736700907361</v>
+        <v>0.8076736700906224</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4345963134153905</v>
+        <v>0.4345963134153692</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.166855203966392</v>
+        <v>1.166855203966406</v>
       </c>
       <c r="H24">
-        <v>0.7109113099484645</v>
+        <v>0.7109113099484574</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.000956254787411</v>
+        <v>1.00095625478744</v>
       </c>
       <c r="K24">
-        <v>0.707745470756052</v>
+        <v>0.7077454707560236</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.96713838085941</v>
+        <v>2.967138380859524</v>
       </c>
       <c r="C25">
-        <v>0.651339795349287</v>
+        <v>0.6513397953493438</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3477734565326358</v>
+        <v>0.34777345653265</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.980629389002317</v>
+        <v>0.9806293890023028</v>
       </c>
       <c r="H25">
         <v>0.621946512472519</v>
@@ -1313,7 +1313,7 @@
         <v>0.8089005323478915</v>
       </c>
       <c r="K25">
-        <v>0.5667181899425202</v>
+        <v>0.5667181899425344</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.464310883744247</v>
+        <v>2.464330870430445</v>
       </c>
       <c r="C2">
-        <v>0.5399141436427328</v>
+        <v>0.5395263229620468</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2867846561521006</v>
+        <v>0.286822020563811</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8583961554327288</v>
+        <v>0.2683517836680025</v>
       </c>
       <c r="H2">
-        <v>0.5669195646464118</v>
+        <v>0.5918574959672043</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.565364308313562</v>
       </c>
       <c r="J2">
-        <v>0.6713443106330104</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4671894169552928</v>
+        <v>0.6712238830011543</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4671246711492856</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.129380602318122</v>
+        <v>2.129428143003395</v>
       </c>
       <c r="C3">
-        <v>0.4660073004698688</v>
+        <v>0.4656813176313506</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2467993342692552</v>
+        <v>0.2468337830880074</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7829083724104535</v>
+        <v>0.2403876451663436</v>
       </c>
       <c r="H3">
-        <v>0.5348918006946661</v>
+        <v>0.5446630352475168</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5334950698363912</v>
       </c>
       <c r="J3">
-        <v>0.5798095051787797</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4016897029473085</v>
+        <v>0.5797138431513602</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4016369482619879</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.925909786753294</v>
+        <v>1.925969905124248</v>
       </c>
       <c r="C4">
-        <v>0.4212248336160656</v>
+        <v>0.4209353073540001</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2227744157267537</v>
+        <v>0.2228068764363869</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7396296491042946</v>
+        <v>0.224205278320909</v>
       </c>
       <c r="H4">
-        <v>0.5174581936913398</v>
+        <v>0.5177627571227958</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5161562401971764</v>
       </c>
       <c r="J4">
-        <v>0.5242355146408073</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.362225738834475</v>
+        <v>0.5241537132800289</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3621796322929711</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.843447955801935</v>
+        <v>1.843512249925595</v>
       </c>
       <c r="C5">
-        <v>0.4030995369080586</v>
+        <v>0.402824545763167</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2130979153765722</v>
+        <v>0.2131295265279505</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7226907454386122</v>
+        <v>0.2178337294121917</v>
       </c>
       <c r="H5">
-        <v>0.5108657141539297</v>
+        <v>0.507274007674269</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5096018388051533</v>
       </c>
       <c r="J5">
-        <v>0.5017196439056235</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3463052626770562</v>
+        <v>0.5016431992354029</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3462617143805744</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.829780087261213</v>
+        <v>1.829845021245347</v>
       </c>
       <c r="C6">
-        <v>0.4000966107282977</v>
+        <v>0.3998240153321717</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2114975067005886</v>
+        <v>0.2115289746758791</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7199181163921651</v>
+        <v>0.2167884965937219</v>
       </c>
       <c r="H6">
-        <v>0.509800589323774</v>
+        <v>0.5055595914347819</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5085430066299068</v>
       </c>
       <c r="J6">
-        <v>0.4979880641150984</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3436706575387589</v>
+        <v>0.4979124925726808</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3436275256907848</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.924795956222141</v>
+        <v>1.924856134578278</v>
       </c>
       <c r="C7">
-        <v>0.420979920579299</v>
+        <v>0.4206905915701213</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2226434773244961</v>
+        <v>0.2226759267236815</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7393984750494411</v>
+        <v>0.2241184789967647</v>
       </c>
       <c r="H7">
-        <v>0.5173672748724698</v>
+        <v>0.5176194474710982</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5160658369949118</v>
       </c>
       <c r="J7">
-        <v>0.5239313615023775</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3620104113542268</v>
+        <v>0.5238496335066998</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3619643398899797</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.348315950126221</v>
+        <v>2.348346428874663</v>
       </c>
       <c r="C8">
-        <v>0.5142907439869191</v>
+        <v>0.5139245964340944</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2728768386801406</v>
+        <v>0.2729132456944825</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8316835352410337</v>
+        <v>0.2584887122610979</v>
       </c>
       <c r="H8">
-        <v>0.5553822225663509</v>
+        <v>0.5751228441243015</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5538822197148718</v>
       </c>
       <c r="J8">
-        <v>0.6396354883419448</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.444431150550173</v>
+        <v>0.6395239089618485</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4443707060989865</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.200842361442369</v>
+        <v>3.200772782916033</v>
       </c>
       <c r="C9">
-        <v>0.7033281139082703</v>
+        <v>0.7027962752630401</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.376492291896696</v>
+        <v>0.3765343102874965</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.040765475405465</v>
+        <v>0.3350020694845881</v>
       </c>
       <c r="H9">
-        <v>0.6501013868940149</v>
+        <v>0.7068253378585041</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6481865818448256</v>
       </c>
       <c r="J9">
-        <v>0.872891635204013</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6134463133170058</v>
+        <v>0.8727084163229648</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6133504825494569</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.848079817759412</v>
+        <v>3.847899083671507</v>
       </c>
       <c r="C10">
-        <v>0.8479983524058241</v>
+        <v>0.8473306195101031</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.457207610004545</v>
+        <v>0.4572514104319865</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.21739408745259</v>
+        <v>0.3987762017591905</v>
       </c>
       <c r="H10">
-        <v>0.7358549246278017</v>
+        <v>0.818989050743042</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.7336114916560206</v>
       </c>
       <c r="J10">
-        <v>1.05031248731818</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7443610938148808</v>
+        <v>1.050064665865179</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.7442322796102161</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.14900748681373</v>
+        <v>4.14876462168985</v>
       </c>
       <c r="C11">
-        <v>0.9156173540899317</v>
+        <v>0.9148833522207269</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4953103463946888</v>
+        <v>0.4953541337748177</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.304276509700529</v>
+        <v>0.4299522438346486</v>
       </c>
       <c r="H11">
-        <v>0.7793825006796737</v>
+        <v>0.8743643988012195</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7769820758478971</v>
       </c>
       <c r="J11">
-        <v>1.132905367403623</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8059670082905086</v>
+        <v>1.132624452357263</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.8058209228485254</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.264083690513189</v>
+        <v>4.263815283242593</v>
       </c>
       <c r="C12">
-        <v>0.9415364124324981</v>
+        <v>0.9407765358205893</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5099758414728655</v>
+        <v>0.510019470306915</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.338265523803116</v>
+        <v>0.4421200130813219</v>
       </c>
       <c r="H12">
-        <v>0.7966131096562563</v>
+        <v>0.8960573741195361</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7941519219768338</v>
       </c>
       <c r="J12">
-        <v>1.16450691032081</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8296479331803965</v>
+        <v>1.164212816649851</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.8294949016952842</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.239246826739929</v>
+        <v>4.238984016356028</v>
       </c>
       <c r="C13">
-        <v>0.935939417209795</v>
+        <v>0.9351851503962791</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5068061725932012</v>
+        <v>0.5068498430610191</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.330894364901923</v>
+        <v>0.4394824758331168</v>
       </c>
       <c r="H13">
-        <v>0.7928672259643008</v>
+        <v>0.891351516132616</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7904191872865809</v>
       </c>
       <c r="J13">
-        <v>1.157685526189567</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8245311641538393</v>
+        <v>1.157394301587701</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.8243796481312557</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.158451232708444</v>
+        <v>4.158206308846445</v>
       </c>
       <c r="C14">
-        <v>0.9177431205247899</v>
+        <v>0.9170070064556626</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4965119037862493</v>
+        <v>0.4965556814344154</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.307050060531566</v>
+        <v>0.430945720156231</v>
       </c>
       <c r="H14">
-        <v>0.7807844777391537</v>
+        <v>0.8761339820863014</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7783790817387128</v>
       </c>
       <c r="J14">
-        <v>1.135498382981524</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8079078390716603</v>
+        <v>1.135216397415078</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.8077611908269233</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.109113650833876</v>
+        <v>4.108879409052406</v>
       </c>
       <c r="C15">
-        <v>0.9066398656229353</v>
+        <v>0.9059147644370569</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.490238419464994</v>
+        <v>0.4902822415659003</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.292591280796714</v>
+        <v>0.4257654944814107</v>
       </c>
       <c r="H15">
-        <v>0.7734839590958984</v>
+        <v>0.8669101687070224</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7711045041923086</v>
       </c>
       <c r="J15">
-        <v>1.121952248516749</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7977732610360206</v>
+        <v>1.121675834142749</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.7976295389340962</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.828559628779203</v>
+        <v>3.828382693833987</v>
       </c>
       <c r="C16">
-        <v>0.8436200486698908</v>
+        <v>0.842956545645734</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4547484719679815</v>
+        <v>0.4547922538618607</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.211859851616211</v>
+        <v>0.396786516521729</v>
       </c>
       <c r="H16">
-        <v>0.7331092742892125</v>
+        <v>0.8154657550693969</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7308759310815276</v>
       </c>
       <c r="J16">
-        <v>1.044957239175787</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.740380984437337</v>
+        <v>1.044711496638996</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.7402532468902905</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.658237924451214</v>
+        <v>3.658092953381811</v>
       </c>
       <c r="C17">
-        <v>0.8054579993073219</v>
+        <v>0.8048310529430296</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4333563878472333</v>
+        <v>0.4333999117020824</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.164106695842065</v>
+        <v>0.3795972745776055</v>
       </c>
       <c r="H17">
-        <v>0.7095633798526535</v>
+        <v>0.7850861803398601</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7074175967055822</v>
       </c>
       <c r="J17">
-        <v>0.998242146996958</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7057363285553393</v>
+        <v>0.9980141969334539</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.705617764745945</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.560872196293644</v>
+        <v>3.560744545917544</v>
       </c>
       <c r="C18">
-        <v>0.783674751288487</v>
+        <v>0.7830684222284106</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4211800333205531</v>
+        <v>0.4212233337779665</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.13724521693679</v>
+        <v>0.3699108186622766</v>
       </c>
       <c r="H18">
-        <v>0.6964390356933379</v>
+        <v>0.7680156375422627</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6943429254351727</v>
       </c>
       <c r="J18">
-        <v>0.9715464353650702</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6859989352939238</v>
+        <v>0.9713283782196811</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.6858854402670431</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.528003387625461</v>
+        <v>3.527881428632384</v>
       </c>
       <c r="C19">
-        <v>0.7763264225715147</v>
+        <v>0.7757270077815974</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4170782186870809</v>
+        <v>0.4171214315631104</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.128250060367662</v>
+        <v>0.3666641261840624</v>
       </c>
       <c r="H19">
-        <v>0.6920644906929283</v>
+        <v>0.7623022968559496</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6899850869214745</v>
       </c>
       <c r="J19">
-        <v>0.9625359956291533</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6793470985957697</v>
+        <v>0.9623212326519166</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.6792352862621414</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.676305711357145</v>
+        <v>3.676157450142</v>
       </c>
       <c r="C20">
-        <v>0.8095028153454678</v>
+        <v>0.8088720207402957</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4356201285769288</v>
+        <v>0.4356636878880522</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.16912648499202</v>
+        <v>0.3814060188348378</v>
       </c>
       <c r="H20">
-        <v>0.7120258871147911</v>
+        <v>0.7882777654558879</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7098708559643896</v>
       </c>
       <c r="J20">
-        <v>1.003196712694731</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7094043328265158</v>
+        <v>1.002966904626447</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.7092848144789841</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.182150797175325</v>
+        <v>4.181900677421254</v>
       </c>
       <c r="C21">
-        <v>0.9230788502487144</v>
+        <v>0.9223374266973963</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4995288251308097</v>
+        <v>0.4995725757909923</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.314022874053506</v>
+        <v>0.433442904684938</v>
       </c>
       <c r="H21">
-        <v>0.7843123318267047</v>
+        <v>0.8805832551150274</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.7818944483779262</v>
       </c>
       <c r="J21">
-        <v>1.142005979144827</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8127804605269375</v>
+        <v>1.141721298420293</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.8126323942341855</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.519393325089084</v>
+        <v>4.519064677322433</v>
       </c>
       <c r="C22">
-        <v>0.9991636087920597</v>
+        <v>0.9983452506785113</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5426988877300118</v>
+        <v>0.5427418448669599</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.415151175035888</v>
+        <v>0.4695915602588059</v>
       </c>
       <c r="H22">
-        <v>0.8359697202233889</v>
+        <v>0.9451835324806694</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.8333722490959303</v>
       </c>
       <c r="J22">
-        <v>1.23465385465164</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.882427875084943</v>
+        <v>1.234329471804273</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.8822587352147337</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.338723699165598</v>
+        <v>4.338438192188335</v>
       </c>
       <c r="C23">
-        <v>0.9583661860248753</v>
+        <v>0.9575893665992226</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5195159775400882</v>
+        <v>0.5195594563182766</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.360533703635411</v>
+        <v>0.450083830681038</v>
       </c>
       <c r="H23">
-        <v>0.8079591505508148</v>
+        <v>0.9102780369937307</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8054583320085058</v>
       </c>
       <c r="J23">
-        <v>1.185009375478884</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8450438401260527</v>
+        <v>1.184706577335675</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.8448861998300146</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.668135551593139</v>
+        <v>3.667988781115582</v>
       </c>
       <c r="C24">
-        <v>0.8076736700906224</v>
+        <v>0.8070446165093585</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4345963134153692</v>
+        <v>0.4346398569279373</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.166855203966406</v>
+        <v>0.380587679212141</v>
       </c>
       <c r="H24">
-        <v>0.7109113099484574</v>
+        <v>0.7868336264497628</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.708760461879244</v>
       </c>
       <c r="J24">
-        <v>1.00095625478744</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7077454707560236</v>
+        <v>1.000727287762018</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.7076263845889557</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.967138380859524</v>
+        <v>2.967101482150497</v>
       </c>
       <c r="C25">
-        <v>0.6513397953493438</v>
+        <v>0.650854860111167</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.34777345653265</v>
+        <v>0.3478142793230887</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.9806293890023028</v>
+        <v>0.3131351114790846</v>
       </c>
       <c r="H25">
-        <v>0.621946512472519</v>
+        <v>0.6687985872319899</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6201474303914694</v>
       </c>
       <c r="J25">
-        <v>0.8089005323478915</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5667181899425344</v>
+        <v>0.8087384691591097</v>
       </c>
       <c r="L25">
+        <v>0.5666329418739053</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.464330870430445</v>
+        <v>2.76626635263915</v>
       </c>
       <c r="C2">
-        <v>0.5395263229620468</v>
+        <v>0.6566521899004272</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.286822020563811</v>
+        <v>0.04916481256536542</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.584797688162752</v>
       </c>
       <c r="G2">
-        <v>0.2683517836680025</v>
+        <v>0.0008005746505580039</v>
       </c>
       <c r="H2">
-        <v>0.5918574959672043</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.565364308313562</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0771064736770164</v>
       </c>
       <c r="K2">
-        <v>0.6712238830011543</v>
+        <v>0.7695474526326365</v>
       </c>
       <c r="L2">
-        <v>0.4671246711492856</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.7153914140886215</v>
+      </c>
+      <c r="N2">
+        <v>1.349735158603153</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.129428143003395</v>
+        <v>2.392883769780497</v>
       </c>
       <c r="C3">
-        <v>0.4656813176313506</v>
+        <v>0.5650151197111768</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2468337830880074</v>
+        <v>0.04538034340458275</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.353318269502594</v>
       </c>
       <c r="G3">
-        <v>0.2403876451663436</v>
+        <v>0.0008095081069728195</v>
       </c>
       <c r="H3">
-        <v>0.5446630352475168</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5334950698363912</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07516523719992207</v>
       </c>
       <c r="K3">
-        <v>0.5797138431513602</v>
+        <v>0.6645978339801815</v>
       </c>
       <c r="L3">
-        <v>0.4016369482619879</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6230218725277155</v>
+      </c>
+      <c r="N3">
+        <v>1.368215216592191</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.925969905124248</v>
+        <v>2.168042963038829</v>
       </c>
       <c r="C4">
-        <v>0.4209353073540001</v>
+        <v>0.5098286516424082</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2228068764363869</v>
+        <v>0.04309173177281345</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.216146184213287</v>
       </c>
       <c r="G4">
-        <v>0.224205278320909</v>
+        <v>0.0008151287092131428</v>
       </c>
       <c r="H4">
-        <v>0.5177627571227958</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5161562401971764</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07414543281228703</v>
       </c>
       <c r="K4">
-        <v>0.5241537132800289</v>
+        <v>0.60139704547408</v>
       </c>
       <c r="L4">
-        <v>0.3621796322929711</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5673053873716469</v>
+      </c>
+      <c r="N4">
+        <v>1.381694793242261</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.843512249925595</v>
+        <v>2.07738054174456</v>
       </c>
       <c r="C5">
-        <v>0.402824545763167</v>
+        <v>0.4875716920080038</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2131295265279505</v>
+        <v>0.04216751392227103</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.161375335175947</v>
       </c>
       <c r="G5">
-        <v>0.2178337294121917</v>
+        <v>0.0008174550994086509</v>
       </c>
       <c r="H5">
-        <v>0.507274007674269</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5096018388051533</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07376948894568613</v>
       </c>
       <c r="K5">
-        <v>0.5016431992354029</v>
+        <v>0.575911064097383</v>
       </c>
       <c r="L5">
-        <v>0.3462617143805744</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5448208079157482</v>
+      </c>
+      <c r="N5">
+        <v>1.387689743512794</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.829845021245347</v>
+        <v>2.062380116005443</v>
       </c>
       <c r="C6">
-        <v>0.3998240153321717</v>
+        <v>0.4838888677019497</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2115289746758791</v>
+        <v>0.04201454517501269</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.152345518272426</v>
       </c>
       <c r="G6">
-        <v>0.2167884965937219</v>
+        <v>0.0008178436183738313</v>
       </c>
       <c r="H6">
-        <v>0.5055595914347819</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5085430066299068</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07370935741478846</v>
       </c>
       <c r="K6">
-        <v>0.4979124925726808</v>
+        <v>0.5716941991988449</v>
       </c>
       <c r="L6">
-        <v>0.3436275256907848</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5410997167474463</v>
+      </c>
+      <c r="N6">
+        <v>1.388714566984291</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.924856134578278</v>
+        <v>2.166816549897305</v>
       </c>
       <c r="C7">
-        <v>0.4206905915701213</v>
+        <v>0.5095275966970121</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2226759267236815</v>
+        <v>0.04307923390040003</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.215403108189207</v>
       </c>
       <c r="G7">
-        <v>0.2241184789967647</v>
+        <v>0.0008151599357486815</v>
       </c>
       <c r="H7">
-        <v>0.5176194474710982</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5160658369949118</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07414020679382105</v>
       </c>
       <c r="K7">
-        <v>0.5238496335066998</v>
+        <v>0.6010522976498933</v>
       </c>
       <c r="L7">
-        <v>0.3619643398899797</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5670012991651845</v>
+      </c>
+      <c r="N7">
+        <v>1.381773654231125</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.348346428874663</v>
+        <v>2.636513272964862</v>
       </c>
       <c r="C8">
-        <v>0.5139245964340944</v>
+        <v>0.6248068989336275</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2729132456944825</v>
+        <v>0.04785238682100434</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.503880027703886</v>
       </c>
       <c r="G8">
-        <v>0.2584887122610979</v>
+        <v>0.0008036279915802278</v>
       </c>
       <c r="H8">
-        <v>0.5751228441243015</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5538822197148718</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07639910449157483</v>
       </c>
       <c r="K8">
-        <v>0.6395239089618485</v>
+        <v>0.7330768267552017</v>
       </c>
       <c r="L8">
-        <v>0.4443707060989865</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.6833156916589473</v>
+      </c>
+      <c r="N8">
+        <v>1.355642751047966</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.200772782916033</v>
+        <v>3.600149731442855</v>
       </c>
       <c r="C9">
-        <v>0.7027962752630401</v>
+        <v>0.8614241822682516</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3765343102874965</v>
+        <v>0.05751255882077189</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>3.114867626249605</v>
       </c>
       <c r="G9">
-        <v>0.3350020694845881</v>
+        <v>0.0007819934013034808</v>
       </c>
       <c r="H9">
-        <v>0.7068253378585041</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6481865818448256</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08237942910933072</v>
       </c>
       <c r="K9">
-        <v>0.8727084163229648</v>
+        <v>1.003958317212465</v>
       </c>
       <c r="L9">
-        <v>0.6133504825494569</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.9208818045392064</v>
+      </c>
+      <c r="N9">
+        <v>1.323050317322625</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.847899083671507</v>
+        <v>4.345954472101766</v>
       </c>
       <c r="C10">
-        <v>0.8473306195101031</v>
+        <v>1.044864910362293</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4572514104319865</v>
+        <v>0.06482909961751204</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>3.600712972570307</v>
       </c>
       <c r="G10">
-        <v>0.3987762017591905</v>
+        <v>0.0007665464688962793</v>
       </c>
       <c r="H10">
-        <v>0.818989050743042</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7336114916560206</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08801298699412996</v>
       </c>
       <c r="K10">
-        <v>1.050064665865179</v>
+        <v>1.213686845028477</v>
       </c>
       <c r="L10">
-        <v>0.7442322796102161</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.103632260031183</v>
+      </c>
+      <c r="N10">
+        <v>1.313198903119186</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.14876462168985</v>
+        <v>4.696560578429171</v>
       </c>
       <c r="C11">
-        <v>0.9148833522207269</v>
+        <v>1.131234103369252</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4953541337748177</v>
+        <v>0.06821513035069415</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>3.832186607877901</v>
       </c>
       <c r="G11">
-        <v>0.4299522438346486</v>
+        <v>0.0007595778417277186</v>
       </c>
       <c r="H11">
-        <v>0.8743643988012195</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7769820758478971</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09092330097422519</v>
       </c>
       <c r="K11">
-        <v>1.132624452357263</v>
+        <v>1.312317033864929</v>
       </c>
       <c r="L11">
-        <v>0.8058209228485254</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.189184224878019</v>
+      </c>
+      <c r="N11">
+        <v>1.312493635516219</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.263815283242593</v>
+        <v>4.831259277462777</v>
       </c>
       <c r="C12">
-        <v>0.9407765358205893</v>
+        <v>1.164441696619008</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.510019470306915</v>
+        <v>0.06950662106153516</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>3.921579035542266</v>
       </c>
       <c r="G12">
-        <v>0.4421200130813219</v>
+        <v>0.0007569436334718431</v>
       </c>
       <c r="H12">
-        <v>0.8960573741195361</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7941519219768338</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09208310962198851</v>
       </c>
       <c r="K12">
-        <v>1.164212816649851</v>
+        <v>1.350216563542702</v>
       </c>
       <c r="L12">
-        <v>0.8294949016952842</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.221989170781384</v>
+      </c>
+      <c r="N12">
+        <v>1.312840122211725</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.238984016356028</v>
+        <v>4.802158305540502</v>
       </c>
       <c r="C13">
-        <v>0.9351851503962791</v>
+        <v>1.157266115984896</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5068498430610191</v>
+        <v>0.06922804548138473</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>3.902245377810914</v>
       </c>
       <c r="G13">
-        <v>0.4394824758331168</v>
+        <v>0.0007575108150891324</v>
       </c>
       <c r="H13">
-        <v>0.891351516132616</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7904191872865809</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.09183061964397865</v>
       </c>
       <c r="K13">
-        <v>1.157394301587701</v>
+        <v>1.342028220222318</v>
       </c>
       <c r="L13">
-        <v>0.8243796481312557</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.214904825204414</v>
+      </c>
+      <c r="N13">
+        <v>1.312736975640561</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.158206308846445</v>
+        <v>4.70760171989923</v>
       </c>
       <c r="C14">
-        <v>0.9170070064556626</v>
+        <v>1.133955551959104</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4965556814344154</v>
+        <v>0.06832118996886294</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>3.839504677969416</v>
       </c>
       <c r="G14">
-        <v>0.430945720156231</v>
+        <v>0.0007593610536359757</v>
       </c>
       <c r="H14">
-        <v>0.8761339820863014</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7783790817387128</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.09101751325226815</v>
       </c>
       <c r="K14">
-        <v>1.135216397415078</v>
+        <v>1.315423476447179</v>
       </c>
       <c r="L14">
-        <v>0.8077611908269233</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.191874548041767</v>
+      </c>
+      <c r="N14">
+        <v>1.312509403097081</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.108879409052406</v>
+        <v>4.649944359629728</v>
       </c>
       <c r="C15">
-        <v>0.9059147644370569</v>
+        <v>1.119745087396893</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4902822415659003</v>
+        <v>0.06776695457445925</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>3.801308086208024</v>
       </c>
       <c r="G15">
-        <v>0.4257654944814107</v>
+        <v>0.0007604948655709515</v>
       </c>
       <c r="H15">
-        <v>0.8669101687070224</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7711045041923086</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.09052723183526723</v>
       </c>
       <c r="K15">
-        <v>1.121675834142749</v>
+        <v>1.299201779100713</v>
       </c>
       <c r="L15">
-        <v>0.7976295389340962</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.177822948579802</v>
+      </c>
+      <c r="N15">
+        <v>1.312452183164197</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.828382693833987</v>
+        <v>4.323294458727105</v>
       </c>
       <c r="C16">
-        <v>0.842956545645734</v>
+        <v>1.039285947717502</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4547922538618607</v>
+        <v>0.06460905526926553</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>3.585815408107862</v>
       </c>
       <c r="G16">
-        <v>0.396786516521729</v>
+        <v>0.0007670027513393689</v>
       </c>
       <c r="H16">
-        <v>0.8154657550693969</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7308759310815276</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08783042135905816</v>
       </c>
       <c r="K16">
-        <v>1.044711496638996</v>
+        <v>1.207313140234177</v>
       </c>
       <c r="L16">
-        <v>0.7402532468902905</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.098094884854483</v>
+      </c>
+      <c r="N16">
+        <v>1.313326779655512</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.658092953381811</v>
+        <v>4.126010124973845</v>
       </c>
       <c r="C17">
-        <v>0.8048310529430296</v>
+        <v>0.9907292739221987</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4333999117020824</v>
+        <v>0.06268720746192002</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>3.456453531742454</v>
       </c>
       <c r="G17">
-        <v>0.3795972745776055</v>
+        <v>0.0007710075637562072</v>
       </c>
       <c r="H17">
-        <v>0.7850861803398601</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7074175967055822</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.0862701926676408</v>
       </c>
       <c r="K17">
-        <v>0.9980141969334539</v>
+        <v>1.151826050354643</v>
       </c>
       <c r="L17">
-        <v>0.705617764745945</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.049844157672325</v>
+      </c>
+      <c r="N17">
+        <v>1.314877544670935</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.560744545917544</v>
+        <v>4.013583962831774</v>
       </c>
       <c r="C18">
-        <v>0.7830684222284106</v>
+        <v>0.9630701809074367</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4212233337779665</v>
+        <v>0.06158717471367225</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>3.383016786461354</v>
       </c>
       <c r="G18">
-        <v>0.3699108186622766</v>
+        <v>0.0007733167602994097</v>
       </c>
       <c r="H18">
-        <v>0.7680156375422627</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6943429254351727</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08540497780934686</v>
       </c>
       <c r="K18">
-        <v>0.9713283782196811</v>
+        <v>1.120208886037162</v>
       </c>
       <c r="L18">
-        <v>0.6858854402670431</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.022315119834239</v>
+      </c>
+      <c r="N18">
+        <v>1.316120157162061</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.527881428632384</v>
+        <v>3.975689640553298</v>
       </c>
       <c r="C19">
-        <v>0.7757270077815974</v>
+        <v>0.9537492715731446</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4171214315631104</v>
+        <v>0.06121561662604691</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>3.358312131277444</v>
       </c>
       <c r="G19">
-        <v>0.3666641261840624</v>
+        <v>0.0007740997046279396</v>
       </c>
       <c r="H19">
-        <v>0.7623022968559496</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6899850869214745</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08511734179370478</v>
       </c>
       <c r="K19">
-        <v>0.9623212326519166</v>
+        <v>1.109552513573277</v>
       </c>
       <c r="L19">
-        <v>0.6792352862621414</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.013030932875004</v>
+      </c>
+      <c r="N19">
+        <v>1.316599123216889</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.676157450142</v>
+        <v>4.146901014278626</v>
       </c>
       <c r="C20">
-        <v>0.8088720207402957</v>
+        <v>0.9958697789346047</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4356636878880522</v>
+        <v>0.06289122982673589</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>3.470122463673363</v>
       </c>
       <c r="G20">
-        <v>0.3814060188348378</v>
+        <v>0.0007705806763004887</v>
       </c>
       <c r="H20">
-        <v>0.7882777654558879</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7098708559643896</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08643289798681053</v>
       </c>
       <c r="K20">
-        <v>1.002966904626447</v>
+        <v>1.157701361710394</v>
       </c>
       <c r="L20">
-        <v>0.7092848144789841</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.054956985252225</v>
+      </c>
+      <c r="N20">
+        <v>1.314675693164119</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.181900677421254</v>
+        <v>4.735320228894523</v>
       </c>
       <c r="C21">
-        <v>0.9223374266973963</v>
+        <v>1.140788110335905</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4995725757909923</v>
+        <v>0.06858729504484273</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>3.857883932875211</v>
       </c>
       <c r="G21">
-        <v>0.433442904684938</v>
+        <v>0.0007588174995059038</v>
       </c>
       <c r="H21">
-        <v>0.8805832551150274</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7818944483779262</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.09125470751221343</v>
       </c>
       <c r="K21">
-        <v>1.141721298420293</v>
+        <v>1.323222240297738</v>
       </c>
       <c r="L21">
-        <v>0.8126323942341855</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.198627493549012</v>
+      </c>
+      <c r="N21">
+        <v>1.312558980518133</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.519064677322433</v>
+        <v>5.131319587148766</v>
       </c>
       <c r="C22">
-        <v>0.9983452506785113</v>
+        <v>1.238470593449165</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5427418448669599</v>
+        <v>0.07236464968528367</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>4.121574665483678</v>
       </c>
       <c r="G22">
-        <v>0.4695915602588059</v>
+        <v>0.0007511546144992132</v>
       </c>
       <c r="H22">
-        <v>0.9451835324806694</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8333722490959303</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.09474709234110179</v>
       </c>
       <c r="K22">
-        <v>1.234329471804273</v>
+        <v>1.434657998472815</v>
       </c>
       <c r="L22">
-        <v>0.8822587352147337</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.29493868463193</v>
+      </c>
+      <c r="N22">
+        <v>1.314792553448953</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.338438192188335</v>
+        <v>4.918809469810355</v>
       </c>
       <c r="C23">
-        <v>0.9575893665992226</v>
+        <v>1.186033630099928</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5195594563182766</v>
+        <v>0.07034323323648195</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>3.97981232765423</v>
       </c>
       <c r="G23">
-        <v>0.450083830681038</v>
+        <v>0.0007552435226135284</v>
       </c>
       <c r="H23">
-        <v>0.9102780369937307</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8054583320085058</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0928490419511192</v>
       </c>
       <c r="K23">
-        <v>1.184706577335675</v>
+        <v>1.374852328295759</v>
       </c>
       <c r="L23">
-        <v>0.8448861998300146</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.243292396803469</v>
+      </c>
+      <c r="N23">
+        <v>1.313243352204353</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.667988781115582</v>
+        <v>4.137453165521947</v>
       </c>
       <c r="C24">
-        <v>0.8070446165093585</v>
+        <v>0.9935449627745925</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4346398569279373</v>
+        <v>0.06279897623900865</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>3.463939844131545</v>
       </c>
       <c r="G24">
-        <v>0.380587679212141</v>
+        <v>0.0007707736507210098</v>
       </c>
       <c r="H24">
-        <v>0.7868336264497628</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.708760461879244</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08635924049018229</v>
       </c>
       <c r="K24">
-        <v>1.000727287762018</v>
+        <v>1.155044258038217</v>
       </c>
       <c r="L24">
-        <v>0.7076263845889557</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.052644823315511</v>
+      </c>
+      <c r="N24">
+        <v>1.314765861968183</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.967101482150497</v>
+        <v>3.333765866863132</v>
       </c>
       <c r="C25">
-        <v>0.650854860111167</v>
+        <v>0.7959805153121806</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3478142793230887</v>
+        <v>0.05486368603602898</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>2.94383259025534</v>
       </c>
       <c r="G25">
-        <v>0.3131351114790846</v>
+        <v>0.0007877556160088585</v>
       </c>
       <c r="H25">
-        <v>0.6687985872319899</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6201474303914694</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08056753758033608</v>
       </c>
       <c r="K25">
-        <v>0.8087384691591097</v>
+        <v>0.9290685787646851</v>
       </c>
       <c r="L25">
-        <v>0.5666329418739053</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0.8553653312270697</v>
+      </c>
+      <c r="N25">
+        <v>1.329610208227663</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.76626635263915</v>
+        <v>0.9015045307025673</v>
       </c>
       <c r="C2">
-        <v>0.6566521899004272</v>
+        <v>0.1443776275707052</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04916481256536542</v>
+        <v>0.9535363970147159</v>
       </c>
       <c r="F2">
-        <v>2.584797688162752</v>
+        <v>1.911122987954386</v>
       </c>
       <c r="G2">
-        <v>0.0008005746505580039</v>
+        <v>0.0008022903249976184</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2046358207275141</v>
       </c>
       <c r="J2">
-        <v>0.0771064736770164</v>
+        <v>0.02036371058132147</v>
       </c>
       <c r="K2">
-        <v>0.7695474526326365</v>
+        <v>0.983609735019229</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7153914140886215</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.349735158603153</v>
+        <v>0.6885543378904018</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.064803216043188</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.392883769780497</v>
+        <v>0.7840603742669714</v>
       </c>
       <c r="C3">
-        <v>0.5650151197111768</v>
+        <v>0.1262937543809102</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04538034340458275</v>
+        <v>0.8343939121028541</v>
       </c>
       <c r="F3">
-        <v>2.353318269502594</v>
+        <v>1.728717450566492</v>
       </c>
       <c r="G3">
-        <v>0.0008095081069728195</v>
+        <v>0.0008055578056165647</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2109525468640072</v>
       </c>
       <c r="J3">
-        <v>0.07516523719992207</v>
+        <v>0.020348074842099</v>
       </c>
       <c r="K3">
-        <v>0.6645978339801815</v>
+        <v>0.8560285235622587</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6230218725277155</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.368215216592191</v>
+        <v>0.7178106317436601</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.061298790486362</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.168042963038829</v>
+        <v>0.7120240975105787</v>
       </c>
       <c r="C4">
-        <v>0.5098286516424082</v>
+        <v>0.1152069505155993</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04309173177281345</v>
+        <v>0.7622327994871796</v>
       </c>
       <c r="F4">
-        <v>2.216146184213287</v>
+        <v>1.61985400400566</v>
       </c>
       <c r="G4">
-        <v>0.0008151287092131428</v>
+        <v>0.0008076267872289377</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2153618691129751</v>
       </c>
       <c r="J4">
-        <v>0.07414543281228703</v>
+        <v>0.02039269724398451</v>
       </c>
       <c r="K4">
-        <v>0.60139704547408</v>
+        <v>0.7777760784405814</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5673053873716469</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.381694793242261</v>
+        <v>0.7366894394769083</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.061864326717014</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.07738054174456</v>
+        <v>0.682678412279472</v>
       </c>
       <c r="C5">
-        <v>0.4875716920080038</v>
+        <v>0.1106911351661211</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04216751392227103</v>
+        <v>0.733048224617562</v>
       </c>
       <c r="F5">
-        <v>2.161375335175947</v>
+        <v>1.576216849703286</v>
       </c>
       <c r="G5">
-        <v>0.0008174550994086509</v>
+        <v>0.0008084860070967507</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2172869703036096</v>
       </c>
       <c r="J5">
-        <v>0.07376948894568613</v>
+        <v>0.02042384999000291</v>
       </c>
       <c r="K5">
-        <v>0.575911064097383</v>
+        <v>0.7458976229211345</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5448208079157482</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.387689743512794</v>
+        <v>0.7446071675896242</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.062746074680376</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.062380116005443</v>
+        <v>0.6778059114484734</v>
       </c>
       <c r="C6">
-        <v>0.4838888677019497</v>
+        <v>0.1099413592649228</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04201454517501269</v>
+        <v>0.7282147516533399</v>
       </c>
       <c r="F6">
-        <v>2.152345518272426</v>
+        <v>1.569012998554868</v>
       </c>
       <c r="G6">
-        <v>0.0008178436183738313</v>
+        <v>0.0008086296608713028</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2176142310937834</v>
       </c>
       <c r="J6">
-        <v>0.07370935741478846</v>
+        <v>0.02042978735494927</v>
       </c>
       <c r="K6">
-        <v>0.5716941991988449</v>
+        <v>0.7406045336698384</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5410997167474463</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.388714566984291</v>
+        <v>0.7459352956781515</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.062930919286373</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.166816549897305</v>
+        <v>0.7116283038315316</v>
       </c>
       <c r="C7">
-        <v>0.5095275966970121</v>
+        <v>0.1151460425925137</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04307923390040003</v>
+        <v>0.761838344295839</v>
       </c>
       <c r="F7">
-        <v>2.215403108189207</v>
+        <v>1.619262640191508</v>
       </c>
       <c r="G7">
-        <v>0.0008151599357486815</v>
+        <v>0.0008076383094185711</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2153873190632538</v>
       </c>
       <c r="J7">
-        <v>0.07414020679382105</v>
+        <v>0.02039306572516075</v>
       </c>
       <c r="K7">
-        <v>0.6010522976498933</v>
+        <v>0.7773461275424438</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5670012991651845</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.381773654231125</v>
+        <v>0.7367953192239938</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.061873622349012</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.636513272964862</v>
+        <v>0.8609885205341357</v>
       </c>
       <c r="C8">
-        <v>0.6248068989336275</v>
+        <v>0.1381375346604301</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04785238682100434</v>
+        <v>0.9122325481330336</v>
       </c>
       <c r="F8">
-        <v>2.503880027703886</v>
+        <v>1.847540152206506</v>
       </c>
       <c r="G8">
-        <v>0.0008036279915802278</v>
+        <v>0.0008034041278819348</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2067004399035923</v>
       </c>
       <c r="J8">
-        <v>0.07639910449157483</v>
+        <v>0.02034665339858321</v>
       </c>
       <c r="K8">
-        <v>0.7330768267552017</v>
+        <v>0.9395957727084863</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6833156916589473</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.355642751047966</v>
+        <v>0.6984484166847444</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.063011159436229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.600149731442855</v>
+        <v>1.154933165338576</v>
       </c>
       <c r="C9">
-        <v>0.8614241822682516</v>
+        <v>0.1834594347455152</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05751255882077189</v>
+        <v>1.216405966255294</v>
       </c>
       <c r="F9">
-        <v>3.114867626249605</v>
+        <v>2.32310222032126</v>
       </c>
       <c r="G9">
-        <v>0.0007819934013034808</v>
+        <v>0.0007955834251415982</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1941247886393569</v>
       </c>
       <c r="J9">
-        <v>0.08237942910933072</v>
+        <v>0.02071777823566201</v>
       </c>
       <c r="K9">
-        <v>1.003958317212465</v>
+        <v>1.258961605468613</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9208818045392064</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.323050317322625</v>
+        <v>0.6307820654279723</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.088329249511176</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.345954472101766</v>
+        <v>1.372232559984297</v>
       </c>
       <c r="C10">
-        <v>1.044864910362293</v>
+        <v>0.2170585449539573</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06482909961751204</v>
+        <v>1.447611611831718</v>
       </c>
       <c r="F10">
-        <v>3.600712972570307</v>
+        <v>2.69409948274685</v>
       </c>
       <c r="G10">
-        <v>0.0007665464688962793</v>
+        <v>0.0007901090279179106</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1879675370967107</v>
       </c>
       <c r="J10">
-        <v>0.08801298699412996</v>
+        <v>0.02131955278271747</v>
       </c>
       <c r="K10">
-        <v>1.213686845028477</v>
+        <v>1.495150934190463</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.103632260031183</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.313198903119186</v>
+        <v>0.5860518648985824</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.123262991597585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.696560578429171</v>
+        <v>1.4715475057628</v>
       </c>
       <c r="C11">
-        <v>1.131234103369252</v>
+        <v>0.2324477096599935</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06821513035069415</v>
+        <v>1.554986216654044</v>
       </c>
       <c r="F11">
-        <v>3.832186607877901</v>
+        <v>2.868685651014005</v>
       </c>
       <c r="G11">
-        <v>0.0007595778417277186</v>
+        <v>0.0007876721460069075</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1859221580869495</v>
       </c>
       <c r="J11">
-        <v>0.09092330097422519</v>
+        <v>0.02167617651459963</v>
       </c>
       <c r="K11">
-        <v>1.312317033864929</v>
+        <v>1.603136401670298</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.189184224878019</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.312493635516219</v>
+        <v>0.5668783650961018</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.143241466353629</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.831259277462777</v>
+        <v>1.509237146954945</v>
       </c>
       <c r="C12">
-        <v>1.164441696619008</v>
+        <v>0.2382937396007776</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06950662106153516</v>
+        <v>1.596009454140884</v>
       </c>
       <c r="F12">
-        <v>3.921579035542266</v>
+        <v>2.935735575589717</v>
       </c>
       <c r="G12">
-        <v>0.0007569436334718431</v>
+        <v>0.0007867565734027721</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1852640769212996</v>
       </c>
       <c r="J12">
-        <v>0.09208310962198851</v>
+        <v>0.02182417257513691</v>
       </c>
       <c r="K12">
-        <v>1.350216563542702</v>
+        <v>1.644123284242141</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.221989170781384</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.312840122211725</v>
+        <v>0.5597952023121877</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.151443206218744</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.802158305540502</v>
+        <v>1.501116152954211</v>
       </c>
       <c r="C13">
-        <v>1.157266115984896</v>
+        <v>0.2370338123158433</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06922804548138473</v>
+        <v>1.587157437245835</v>
       </c>
       <c r="F13">
-        <v>3.902245377810914</v>
+        <v>2.921251747742758</v>
       </c>
       <c r="G13">
-        <v>0.0007575108150891324</v>
+        <v>0.0007869534449869122</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1854004965539247</v>
       </c>
       <c r="J13">
-        <v>0.09183061964397865</v>
+        <v>0.0217917056635315</v>
       </c>
       <c r="K13">
-        <v>1.342028220222318</v>
+        <v>1.635291504915358</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.214904825204414</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.312736975640561</v>
+        <v>0.5613126549914185</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.149647700350016</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.70760171989923</v>
+        <v>1.474646540319668</v>
       </c>
       <c r="C14">
-        <v>1.133955551959104</v>
+        <v>0.2329282748116128</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06832118996886294</v>
+        <v>1.558353668086511</v>
       </c>
       <c r="F14">
-        <v>3.839504677969416</v>
+        <v>2.874182477936841</v>
       </c>
       <c r="G14">
-        <v>0.0007593610536359757</v>
+        <v>0.0007875966793954607</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1858656366059677</v>
       </c>
       <c r="J14">
-        <v>0.09101751325226815</v>
+        <v>0.0216880864813227</v>
       </c>
       <c r="K14">
-        <v>1.315423476447179</v>
+        <v>1.606506406774798</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.191874548041767</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.312509403097081</v>
+        <v>0.5662920222063015</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.143903183897152</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.649944359629728</v>
+        <v>1.458444165477061</v>
       </c>
       <c r="C15">
-        <v>1.119745087396893</v>
+        <v>0.2304160291176487</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06776695457445925</v>
+        <v>1.540759239778396</v>
       </c>
       <c r="F15">
-        <v>3.801308086208024</v>
+        <v>2.845476501197084</v>
       </c>
       <c r="G15">
-        <v>0.0007604948655709515</v>
+        <v>0.0007879916051448076</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1861659560737117</v>
       </c>
       <c r="J15">
-        <v>0.09052723183526723</v>
+        <v>0.02162633533559699</v>
       </c>
       <c r="K15">
-        <v>1.299201779100713</v>
+        <v>1.5888876276818</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.177822948579802</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.312452183164197</v>
+        <v>0.5693653976245372</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.140468875739032</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.323294458727105</v>
+        <v>1.365752647695388</v>
       </c>
       <c r="C16">
-        <v>1.039285947717502</v>
+        <v>0.2160552203926471</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06460905526926553</v>
+        <v>1.440642552264862</v>
       </c>
       <c r="F16">
-        <v>3.585815408107862</v>
+        <v>2.682815392613321</v>
       </c>
       <c r="G16">
-        <v>0.0007670027513393689</v>
+        <v>0.0007902693204388655</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1881170665194922</v>
       </c>
       <c r="J16">
-        <v>0.08783042135905816</v>
+        <v>0.02129800069088716</v>
       </c>
       <c r="K16">
-        <v>1.207313140234177</v>
+        <v>1.4881061713902</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.098094884854483</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.313326779655512</v>
+        <v>0.5873292485749744</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.122043665678888</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.126010124973845</v>
+        <v>1.309018256637728</v>
       </c>
       <c r="C17">
-        <v>0.9907292739221987</v>
+        <v>0.2072744993214286</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06268720746192002</v>
+        <v>1.379819039121145</v>
       </c>
       <c r="F17">
-        <v>3.456453531742454</v>
+        <v>2.58458743986759</v>
       </c>
       <c r="G17">
-        <v>0.0007710075637562072</v>
+        <v>0.0007916799947121962</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1895129154547028</v>
       </c>
       <c r="J17">
-        <v>0.0862701926676408</v>
+        <v>0.02111851381676821</v>
       </c>
       <c r="K17">
-        <v>1.151826050354643</v>
+        <v>1.426430579103084</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.049844157672325</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.314877544670935</v>
+        <v>0.5986561991932042</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.111820633641827</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.013583962831774</v>
+        <v>1.276428910792305</v>
       </c>
       <c r="C18">
-        <v>0.9630701809074367</v>
+        <v>0.2022336986157853</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06158717471367225</v>
+        <v>1.345038798768599</v>
       </c>
       <c r="F18">
-        <v>3.383016786461354</v>
+        <v>2.528630325549528</v>
       </c>
       <c r="G18">
-        <v>0.0007733167602994097</v>
+        <v>0.0007924964377418112</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.190386391011419</v>
       </c>
       <c r="J18">
-        <v>0.08540497780934686</v>
+        <v>0.02102301165515463</v>
       </c>
       <c r="K18">
-        <v>1.120208886037162</v>
+        <v>1.391006288731916</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.022315119834239</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.316120157162061</v>
+        <v>0.6052811664442999</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.106322180126952</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.975689640553298</v>
+        <v>1.265401643481766</v>
       </c>
       <c r="C19">
-        <v>0.9537492715731446</v>
+        <v>0.2005285261648737</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06121561662604691</v>
+        <v>1.333296463613436</v>
       </c>
       <c r="F19">
-        <v>3.358312131277444</v>
+        <v>2.509774182822468</v>
       </c>
       <c r="G19">
-        <v>0.0007740997046279396</v>
+        <v>0.0007927737541115352</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1906940349770601</v>
       </c>
       <c r="J19">
-        <v>0.08511734179370478</v>
+        <v>0.02099197440342948</v>
       </c>
       <c r="K19">
-        <v>1.109552513573277</v>
+        <v>1.379020297753328</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.013030932875004</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.316599123216889</v>
+        <v>0.607542909155697</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.104524608926269</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.146901014278626</v>
+        <v>1.315053201358978</v>
       </c>
       <c r="C20">
-        <v>0.9958697789346047</v>
+        <v>0.2082082007912902</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06289122982673589</v>
+        <v>1.386272385302007</v>
       </c>
       <c r="F20">
-        <v>3.470122463673363</v>
+        <v>2.594987275369618</v>
       </c>
       <c r="G20">
-        <v>0.0007705806763004887</v>
+        <v>0.000791529305510369</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.189356961243444</v>
       </c>
       <c r="J20">
-        <v>0.08643289798681053</v>
+        <v>0.02113681284098057</v>
       </c>
       <c r="K20">
-        <v>1.157701361710394</v>
+        <v>1.432990768672511</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.054956985252225</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.314675693164119</v>
+        <v>0.5974389808763654</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.112869061662195</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.735320228894523</v>
+        <v>1.482418981647442</v>
       </c>
       <c r="C21">
-        <v>1.140788110335905</v>
+        <v>0.2341336401000973</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06858729504484273</v>
+        <v>1.566803791888432</v>
       </c>
       <c r="F21">
-        <v>3.857883932875211</v>
+        <v>2.887981555009333</v>
       </c>
       <c r="G21">
-        <v>0.0007588174995059038</v>
+        <v>0.000787407553762258</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1857257880024008</v>
       </c>
       <c r="J21">
-        <v>0.09125470751221343</v>
+        <v>0.02171816183146902</v>
       </c>
       <c r="K21">
-        <v>1.323222240297738</v>
+        <v>1.614958561555738</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.198627493549012</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.312558980518133</v>
+        <v>0.5648245751768712</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.145572812150306</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.131319587148766</v>
+        <v>1.592283222713718</v>
       </c>
       <c r="C22">
-        <v>1.238470593449165</v>
+        <v>0.2511869942185001</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07236464968528367</v>
+        <v>1.686931255204385</v>
       </c>
       <c r="F22">
-        <v>4.121574665483678</v>
+        <v>3.084991041001331</v>
       </c>
       <c r="G22">
-        <v>0.0007511546144992132</v>
+        <v>0.0007847556031998967</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1840354587916941</v>
       </c>
       <c r="J22">
-        <v>0.09474709234110179</v>
+        <v>0.02217413224580511</v>
       </c>
       <c r="K22">
-        <v>1.434657998472815</v>
+        <v>1.734448585915487</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.29493868463193</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.314792553448953</v>
+        <v>0.5445477326525747</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.17068086477363</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.918809469810355</v>
+        <v>1.5335975061233</v>
       </c>
       <c r="C23">
-        <v>1.186033630099928</v>
+        <v>0.2420740561108943</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07034323323648195</v>
+        <v>1.622604529341274</v>
       </c>
       <c r="F23">
-        <v>3.97981232765423</v>
+        <v>2.97930229260308</v>
       </c>
       <c r="G23">
-        <v>0.0007552435226135284</v>
+        <v>0.000786167332110524</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1848724092381211</v>
       </c>
       <c r="J23">
-        <v>0.0928490419511192</v>
+        <v>0.02192345257465433</v>
       </c>
       <c r="K23">
-        <v>1.374852328295759</v>
+        <v>1.670616868424759</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.243292396803469</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.313243352204353</v>
+        <v>0.5552718636271123</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.156921496954709</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.137453165521947</v>
+        <v>1.312324716679427</v>
       </c>
       <c r="C24">
-        <v>0.9935449627745925</v>
+        <v>0.2077860517092489</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06279897623900865</v>
+        <v>1.383354245369276</v>
       </c>
       <c r="F24">
-        <v>3.463939844131545</v>
+        <v>2.590283911797286</v>
       </c>
       <c r="G24">
-        <v>0.0007707736507210098</v>
+        <v>0.000791597415102155</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1894272476285934</v>
       </c>
       <c r="J24">
-        <v>0.08635924049018229</v>
+        <v>0.02112851598524834</v>
       </c>
       <c r="K24">
-        <v>1.155044258038217</v>
+        <v>1.430024802882258</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.052644823315511</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.314765861968183</v>
+        <v>0.5979889340945768</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.112393890786933</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.333765866863132</v>
+        <v>1.075231932361532</v>
       </c>
       <c r="C25">
-        <v>0.7959805153121806</v>
+        <v>0.1711579590381405</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05486368603602898</v>
+        <v>1.132923581492491</v>
       </c>
       <c r="F25">
-        <v>2.94383259025534</v>
+        <v>2.191010493931174</v>
       </c>
       <c r="G25">
-        <v>0.0007877556160088585</v>
+        <v>0.0007976497340268771</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1970133161667853</v>
       </c>
       <c r="J25">
-        <v>0.08056753758033608</v>
+        <v>0.02056321684919737</v>
       </c>
       <c r="K25">
-        <v>0.9290685787646851</v>
+        <v>1.172355528004772</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8553653312270697</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.329610208227663</v>
+        <v>0.6482422651839741</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.078784443048065</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9015045307025673</v>
+        <v>0.3196677091339666</v>
       </c>
       <c r="C2">
-        <v>0.1443776275707052</v>
+        <v>0.04339544069544843</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9535363970147159</v>
+        <v>0.6731681490162913</v>
       </c>
       <c r="F2">
-        <v>1.911122987954386</v>
+        <v>2.276559655965301</v>
       </c>
       <c r="G2">
-        <v>0.0008022903249976184</v>
+        <v>0.002430289688350901</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2046358207275141</v>
+        <v>0.5037492469107399</v>
       </c>
       <c r="J2">
-        <v>0.02036371058132147</v>
+        <v>0.04543404102100546</v>
       </c>
       <c r="K2">
-        <v>0.983609735019229</v>
+        <v>0.3286257949678486</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6885543378904018</v>
+        <v>1.31171027592978</v>
       </c>
       <c r="O2">
-        <v>1.064803216043188</v>
+        <v>2.330852130569127</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7840603742669714</v>
+        <v>0.2843165961010925</v>
       </c>
       <c r="C3">
-        <v>0.1262937543809102</v>
+        <v>0.03788059928024268</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8343939121028541</v>
+        <v>0.645254848475588</v>
       </c>
       <c r="F3">
-        <v>1.728717450566492</v>
+        <v>2.24679625162679</v>
       </c>
       <c r="G3">
-        <v>0.0008055578056165647</v>
+        <v>0.002432391713797773</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2109525468640072</v>
+        <v>0.5095548468417874</v>
       </c>
       <c r="J3">
-        <v>0.020348074842099</v>
+        <v>0.04582909655639433</v>
       </c>
       <c r="K3">
-        <v>0.8560285235622587</v>
+        <v>0.2900573016790986</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7178106317436601</v>
+        <v>1.324549781672978</v>
       </c>
       <c r="O3">
-        <v>1.061298790486362</v>
+        <v>2.350141138592591</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7120240975105787</v>
+        <v>0.2626137664573207</v>
       </c>
       <c r="C4">
-        <v>0.1152069505155993</v>
+        <v>0.03448174982037244</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7622327994871796</v>
+        <v>0.628453221452574</v>
       </c>
       <c r="F4">
-        <v>1.61985400400566</v>
+        <v>2.229863603246784</v>
       </c>
       <c r="G4">
-        <v>0.0008076267872289377</v>
+        <v>0.002433750412389983</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2153618691129751</v>
+        <v>0.5133955085443631</v>
       </c>
       <c r="J4">
-        <v>0.02039269724398451</v>
+        <v>0.04609840770437401</v>
       </c>
       <c r="K4">
-        <v>0.7777760784405814</v>
+        <v>0.2663568733037494</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7366894394769083</v>
+        <v>1.332895341091536</v>
       </c>
       <c r="O4">
-        <v>1.061864326717014</v>
+        <v>2.363349020189617</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.682678412279472</v>
+        <v>0.2537709512309334</v>
       </c>
       <c r="C5">
-        <v>0.1106911351661211</v>
+        <v>0.03309353959436123</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.733048224617562</v>
+        <v>0.6216911280433237</v>
       </c>
       <c r="F5">
-        <v>1.576216849703286</v>
+        <v>2.223300561978917</v>
       </c>
       <c r="G5">
-        <v>0.0008084860070967507</v>
+        <v>0.002434321254630167</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2172869703036096</v>
+        <v>0.5150299698095271</v>
       </c>
       <c r="J5">
-        <v>0.02042384999000291</v>
+        <v>0.04621487299767857</v>
       </c>
       <c r="K5">
-        <v>0.7458976229211345</v>
+        <v>0.2566944496635841</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7446071675896242</v>
+        <v>1.336412455406798</v>
       </c>
       <c r="O5">
-        <v>1.062746074680376</v>
+        <v>2.369074177446691</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6778059114484734</v>
+        <v>0.2523027006300822</v>
       </c>
       <c r="C6">
-        <v>0.1099413592649228</v>
+        <v>0.03286283935403844</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7282147516533399</v>
+        <v>0.6205734008105566</v>
       </c>
       <c r="F6">
-        <v>1.569012998554868</v>
+        <v>2.222231126725831</v>
       </c>
       <c r="G6">
-        <v>0.0008086296608713028</v>
+        <v>0.002434417080644394</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2176142310937834</v>
+        <v>0.5153055588335071</v>
       </c>
       <c r="J6">
-        <v>0.02042978735494927</v>
+        <v>0.04623461758017555</v>
       </c>
       <c r="K6">
-        <v>0.7406045336698384</v>
+        <v>0.2550897669673589</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7459352956781515</v>
+        <v>1.337003490993236</v>
       </c>
       <c r="O6">
-        <v>1.062930919286373</v>
+        <v>2.370045535067518</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7116283038315316</v>
+        <v>0.2624945033302311</v>
       </c>
       <c r="C7">
-        <v>0.1151460425925137</v>
+        <v>0.0344630406309534</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.761838344295839</v>
+        <v>0.6283616826546137</v>
       </c>
       <c r="F7">
-        <v>1.619262640191508</v>
+        <v>2.229773727145229</v>
       </c>
       <c r="G7">
-        <v>0.0008076383094185711</v>
+        <v>0.002433758041527045</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2153873190632538</v>
+        <v>0.5134172706790245</v>
       </c>
       <c r="J7">
-        <v>0.02039306572516075</v>
+        <v>0.04609995120023136</v>
       </c>
       <c r="K7">
-        <v>0.7773461275424438</v>
+        <v>0.266226579219591</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7367953192239938</v>
+        <v>1.332942303450533</v>
       </c>
       <c r="O7">
-        <v>1.061873622349012</v>
+        <v>2.363424843844484</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8609885205341357</v>
+        <v>0.3074783544509501</v>
       </c>
       <c r="C8">
-        <v>0.1381375346604301</v>
+        <v>0.04149658802610645</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9122325481330336</v>
+        <v>0.66347357630913</v>
       </c>
       <c r="F8">
-        <v>1.847540152206506</v>
+        <v>2.266018428670563</v>
       </c>
       <c r="G8">
-        <v>0.0008034041278819348</v>
+        <v>0.002431000374511178</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2067004399035923</v>
+        <v>0.5056937090266835</v>
       </c>
       <c r="J8">
-        <v>0.02034665339858321</v>
+        <v>0.04556470118813749</v>
       </c>
       <c r="K8">
-        <v>0.9395957727084863</v>
+        <v>0.3153316705864881</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6984484166847444</v>
+        <v>1.316041466109088</v>
       </c>
       <c r="O8">
-        <v>1.063011159436229</v>
+        <v>2.337219663813102</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.154933165338576</v>
+        <v>0.3956952997791348</v>
       </c>
       <c r="C9">
-        <v>0.1834594347455152</v>
+        <v>0.05518711476585736</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.216405966255294</v>
+        <v>0.7350126312320668</v>
       </c>
       <c r="F9">
-        <v>2.32310222032126</v>
+        <v>2.34776701983256</v>
       </c>
       <c r="G9">
-        <v>0.0007955834251415982</v>
+        <v>0.002426130185623543</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1941247886393569</v>
+        <v>0.4927395964035739</v>
       </c>
       <c r="J9">
-        <v>0.02071777823566201</v>
+        <v>0.04472760018300193</v>
       </c>
       <c r="K9">
-        <v>1.258961605468613</v>
+        <v>0.4114556756525189</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6307820654279723</v>
+        <v>1.286562868561028</v>
       </c>
       <c r="O9">
-        <v>1.088329249511176</v>
+        <v>2.296668556491923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.372232559984297</v>
+        <v>0.4604910639335458</v>
       </c>
       <c r="C10">
-        <v>0.2170585449539573</v>
+        <v>0.06518236297753788</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.447611611831718</v>
+        <v>0.7892274922030964</v>
       </c>
       <c r="F10">
-        <v>2.69409948274685</v>
+        <v>2.414376137777765</v>
       </c>
       <c r="G10">
-        <v>0.0007901090279179106</v>
+        <v>0.002422876512005626</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1879675370967107</v>
+        <v>0.4845608227211358</v>
       </c>
       <c r="J10">
-        <v>0.02131955278271747</v>
+        <v>0.04424259053751101</v>
       </c>
       <c r="K10">
-        <v>1.495150934190463</v>
+        <v>0.4819558461101678</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5860518648985824</v>
+        <v>1.267135028194719</v>
       </c>
       <c r="O10">
-        <v>1.123262991597585</v>
+        <v>2.273499638586898</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.4715475057628</v>
+        <v>0.4899608423780251</v>
       </c>
       <c r="C11">
-        <v>0.2324477096599935</v>
+        <v>0.06971562052022762</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.554986216654044</v>
+        <v>0.814254998374409</v>
       </c>
       <c r="F11">
-        <v>2.868685651014005</v>
+        <v>2.446110000107126</v>
       </c>
       <c r="G11">
-        <v>0.0007876721460069075</v>
+        <v>0.002421466086915623</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1859221580869495</v>
+        <v>0.4811312906421463</v>
       </c>
       <c r="J11">
-        <v>0.02167617651459963</v>
+        <v>0.04405027664324734</v>
       </c>
       <c r="K11">
-        <v>1.603136401670298</v>
+        <v>0.5139982935104968</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5668783650961018</v>
+        <v>1.258780333982834</v>
       </c>
       <c r="O11">
-        <v>1.143241466353629</v>
+        <v>2.264401704047742</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.509237146954945</v>
+        <v>0.501118937803966</v>
       </c>
       <c r="C12">
-        <v>0.2382937396007776</v>
+        <v>0.0714302546095098</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.596009454140884</v>
+        <v>0.8237849555028873</v>
       </c>
       <c r="F12">
-        <v>2.935735575589717</v>
+        <v>2.458333446654365</v>
       </c>
       <c r="G12">
-        <v>0.0007867565734027721</v>
+        <v>0.002420941964008004</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1852640769212996</v>
+        <v>0.4798745173049497</v>
       </c>
       <c r="J12">
-        <v>0.02182417257513691</v>
+        <v>0.04398153284152073</v>
       </c>
       <c r="K12">
-        <v>1.644123284242141</v>
+        <v>0.5261274038255976</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5597952023121877</v>
+        <v>1.255686071788105</v>
       </c>
       <c r="O12">
-        <v>1.151443206218744</v>
+        <v>2.26116418299182</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.501116152954211</v>
+        <v>0.4987159170351845</v>
       </c>
       <c r="C13">
-        <v>0.2370338123158433</v>
+        <v>0.07106106779804122</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.587157437245835</v>
+        <v>0.8217301682369822</v>
       </c>
       <c r="F13">
-        <v>2.921251747742758</v>
+        <v>2.455691716388401</v>
       </c>
       <c r="G13">
-        <v>0.0007869534449869122</v>
+        <v>0.002421054400445348</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1854004965539247</v>
+        <v>0.480143320652072</v>
       </c>
       <c r="J13">
-        <v>0.0217917056635315</v>
+        <v>0.04399615638838128</v>
       </c>
       <c r="K13">
-        <v>1.635291504915358</v>
+        <v>0.52351539979432</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5613126549914185</v>
+        <v>1.256349386282089</v>
       </c>
       <c r="O13">
-        <v>1.149647700350016</v>
+        <v>2.261852199322902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.474646540319668</v>
+        <v>0.4908788584272941</v>
       </c>
       <c r="C14">
-        <v>0.2329282748116128</v>
+        <v>0.069856725122321</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.558353668086511</v>
+        <v>0.815037979176239</v>
       </c>
       <c r="F14">
-        <v>2.874182477936841</v>
+        <v>2.447111488807451</v>
       </c>
       <c r="G14">
-        <v>0.0007875966793954607</v>
+        <v>0.002421422767225234</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1858656366059677</v>
+        <v>0.4810270547057129</v>
       </c>
       <c r="J14">
-        <v>0.0216880864813227</v>
+        <v>0.04404453920261986</v>
       </c>
       <c r="K14">
-        <v>1.606506406774798</v>
+        <v>0.514996259613298</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5662920222063015</v>
+        <v>1.258524374658492</v>
       </c>
       <c r="O14">
-        <v>1.143903183897152</v>
+        <v>2.264131187223455</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.458444165477061</v>
+        <v>0.4860782248745465</v>
       </c>
       <c r="C15">
-        <v>0.2304160291176487</v>
+        <v>0.06911876687645702</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.540759239778396</v>
+        <v>0.8109456714637986</v>
       </c>
       <c r="F15">
-        <v>2.845476501197084</v>
+        <v>2.441882760357402</v>
       </c>
       <c r="G15">
-        <v>0.0007879916051448076</v>
+        <v>0.002421649700431162</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1861659560737117</v>
+        <v>0.4815738279931523</v>
       </c>
       <c r="J15">
-        <v>0.02162633533559699</v>
+        <v>0.04407470684577675</v>
       </c>
       <c r="K15">
-        <v>1.5888876276818</v>
+        <v>0.5097774149999736</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5693653976245372</v>
+        <v>1.259865666310304</v>
       </c>
       <c r="O15">
-        <v>1.140468875739032</v>
+        <v>2.265554188236592</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.365752647695388</v>
+        <v>0.4585649708464814</v>
       </c>
       <c r="C16">
-        <v>0.2160552203926471</v>
+        <v>0.06488582519327224</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.440642552264862</v>
+        <v>0.7875992379799612</v>
       </c>
       <c r="F16">
-        <v>2.682815392613321</v>
+        <v>2.412331130241938</v>
       </c>
       <c r="G16">
-        <v>0.0007902693204388655</v>
+        <v>0.002422970084942784</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1881170665194922</v>
+        <v>0.484790812659142</v>
       </c>
       <c r="J16">
-        <v>0.02129800069088716</v>
+        <v>0.04425572933015332</v>
       </c>
       <c r="K16">
-        <v>1.4881061713902</v>
+        <v>0.479861175028276</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5873292485749744</v>
+        <v>1.267690749319385</v>
       </c>
       <c r="O16">
-        <v>1.122043665678888</v>
+        <v>2.274123251158343</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.309018256637728</v>
+        <v>0.4416844900978276</v>
       </c>
       <c r="C17">
-        <v>0.2072744993214286</v>
+        <v>0.06228552426878764</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.379819039121145</v>
+        <v>0.7733704947080753</v>
       </c>
       <c r="F17">
-        <v>2.58458743986759</v>
+        <v>2.394569518881781</v>
       </c>
       <c r="G17">
-        <v>0.0007916799947121962</v>
+        <v>0.002423797913512292</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1895129154547028</v>
+        <v>0.4868389158694235</v>
       </c>
       <c r="J17">
-        <v>0.02111851381676821</v>
+        <v>0.04437404043146032</v>
       </c>
       <c r="K17">
-        <v>1.426430579103084</v>
+        <v>0.4615008350597805</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5986561991932042</v>
+        <v>1.272614928215127</v>
       </c>
       <c r="O17">
-        <v>1.111820633641827</v>
+        <v>2.279749603085932</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.276428910792305</v>
+        <v>0.4319747412033621</v>
       </c>
       <c r="C18">
-        <v>0.2022336986157853</v>
+        <v>0.06078862003779761</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.345038798768599</v>
+        <v>0.7652208366309736</v>
       </c>
       <c r="F18">
-        <v>2.528630325549528</v>
+        <v>2.384488367072009</v>
       </c>
       <c r="G18">
-        <v>0.0007924964377418112</v>
+        <v>0.00242428062069059</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.190386391011419</v>
+        <v>0.4880443201234783</v>
       </c>
       <c r="J18">
-        <v>0.02102301165515463</v>
+        <v>0.04444475486579513</v>
       </c>
       <c r="K18">
-        <v>1.391006288731916</v>
+        <v>0.4509378114484548</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6052811664442999</v>
+        <v>1.27549265939383</v>
       </c>
       <c r="O18">
-        <v>1.106322180126952</v>
+        <v>2.283121412548908</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.265401643481766</v>
+        <v>0.4286871117356839</v>
       </c>
       <c r="C19">
-        <v>0.2005285261648737</v>
+        <v>0.06028157574826309</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.333296463613436</v>
+        <v>0.7624673967507647</v>
       </c>
       <c r="F19">
-        <v>2.509774182822468</v>
+        <v>2.381098210448727</v>
       </c>
       <c r="G19">
-        <v>0.0007927737541115352</v>
+        <v>0.002424445185609116</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1906940349770601</v>
+        <v>0.488457151457748</v>
       </c>
       <c r="J19">
-        <v>0.02099197440342948</v>
+        <v>0.04446915500440518</v>
       </c>
       <c r="K19">
-        <v>1.379020297753328</v>
+        <v>0.4473609171378428</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.607542909155697</v>
+        <v>1.276474819749449</v>
       </c>
       <c r="O19">
-        <v>1.104524608926269</v>
+        <v>2.284286341898252</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.315053201358978</v>
+        <v>0.4434815065283146</v>
       </c>
       <c r="C20">
-        <v>0.2082082007912902</v>
+        <v>0.06256246358590545</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.386272385302007</v>
+        <v>0.774881613984121</v>
       </c>
       <c r="F20">
-        <v>2.594987275369618</v>
+        <v>2.396446312242944</v>
       </c>
       <c r="G20">
-        <v>0.000791529305510369</v>
+        <v>0.002423709110729057</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.189356961243444</v>
+        <v>0.4866180566031453</v>
       </c>
       <c r="J20">
-        <v>0.02113681284098057</v>
+        <v>0.04436117012868479</v>
       </c>
       <c r="K20">
-        <v>1.432990768672511</v>
+        <v>0.4634556022020035</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5974389808763654</v>
+        <v>1.272086034570478</v>
       </c>
       <c r="O20">
-        <v>1.112869061662195</v>
+        <v>2.279136623333031</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.482418981647442</v>
+        <v>0.4931808370883743</v>
       </c>
       <c r="C21">
-        <v>0.2341336401000973</v>
+        <v>0.07021052478350498</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.566803791888432</v>
+        <v>0.8170022093123634</v>
       </c>
       <c r="F21">
-        <v>2.887981555009333</v>
+        <v>2.449626101076092</v>
       </c>
       <c r="G21">
-        <v>0.000787407553762258</v>
+        <v>0.002421314298808236</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1857257880024008</v>
+        <v>0.4807663424773416</v>
       </c>
       <c r="J21">
-        <v>0.02171816183146902</v>
+        <v>0.04403021715989297</v>
       </c>
       <c r="K21">
-        <v>1.614958561555738</v>
+        <v>0.5174986689314096</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5648245751768712</v>
+        <v>1.257883642141891</v>
       </c>
       <c r="O21">
-        <v>1.145572812150306</v>
+        <v>2.263456154342691</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.592283222713718</v>
+        <v>0.5256533818001117</v>
       </c>
       <c r="C22">
-        <v>0.2511869942185001</v>
+        <v>0.07519722248797223</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.686931255204385</v>
+        <v>0.8448370049441678</v>
       </c>
       <c r="F22">
-        <v>3.084991041001331</v>
+        <v>2.485586145855564</v>
       </c>
       <c r="G22">
-        <v>0.0007847556031998967</v>
+        <v>0.002419807268647326</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1840354587916941</v>
+        <v>0.4771862584458972</v>
       </c>
       <c r="J22">
-        <v>0.02217413224580511</v>
+        <v>0.04383771338738285</v>
       </c>
       <c r="K22">
-        <v>1.734448585915487</v>
+        <v>0.5527914532360114</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5445477326525747</v>
+        <v>1.24900654044113</v>
       </c>
       <c r="O22">
-        <v>1.17068086477363</v>
+        <v>2.254418680847522</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.5335975061233</v>
+        <v>0.5083231763297817</v>
       </c>
       <c r="C23">
-        <v>0.2420740561108943</v>
+        <v>0.07253682056455091</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.622604529341274</v>
+        <v>0.8299529635148417</v>
       </c>
       <c r="F23">
-        <v>2.97930229260308</v>
+        <v>2.466283278670716</v>
       </c>
       <c r="G23">
-        <v>0.000786167332110524</v>
+        <v>0.002420606296268576</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1848724092381211</v>
+        <v>0.4790746368696652</v>
       </c>
       <c r="J23">
-        <v>0.02192345257465433</v>
+        <v>0.04393827621639446</v>
       </c>
       <c r="K23">
-        <v>1.670616868424759</v>
+        <v>0.5339577363973547</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5552718636271123</v>
+        <v>1.253707357977312</v>
       </c>
       <c r="O23">
-        <v>1.156921496954709</v>
+        <v>2.259131262410108</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.312324716679427</v>
+        <v>0.4426690907295949</v>
       </c>
       <c r="C24">
-        <v>0.2077860517092489</v>
+        <v>0.06243726541107719</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.383354245369276</v>
+        <v>0.7741983415410942</v>
       </c>
       <c r="F24">
-        <v>2.590283911797286</v>
+        <v>2.395597408316718</v>
       </c>
       <c r="G24">
-        <v>0.000791597415102155</v>
+        <v>0.002423749237531019</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1894272476285934</v>
+        <v>0.4867178201046229</v>
       </c>
       <c r="J24">
-        <v>0.02112851598524834</v>
+        <v>0.04436698039639708</v>
       </c>
       <c r="K24">
-        <v>1.430024802882258</v>
+        <v>0.4625718750446026</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5979889340945768</v>
+        <v>1.272325001745212</v>
       </c>
       <c r="O24">
-        <v>1.112393890786933</v>
+        <v>2.2794133243017</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.075231932361532</v>
+        <v>0.3718318972936174</v>
       </c>
       <c r="C25">
-        <v>0.1711579590381405</v>
+        <v>0.05149449886972945</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.132923581492491</v>
+        <v>0.7153701031286772</v>
       </c>
       <c r="F25">
-        <v>2.191010493931174</v>
+        <v>2.324504934259735</v>
       </c>
       <c r="G25">
-        <v>0.0007976497340268771</v>
+        <v>0.002427390488150344</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1970133161667853</v>
+        <v>0.4960091310416672</v>
       </c>
       <c r="J25">
-        <v>0.02056321684919737</v>
+        <v>0.04493125997069569</v>
       </c>
       <c r="K25">
-        <v>1.172355528004772</v>
+        <v>0.3854717414335482</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6482422651839741</v>
+        <v>1.294145741608091</v>
       </c>
       <c r="O25">
-        <v>1.078784443048065</v>
+        <v>2.306476724107114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3196677091339666</v>
+        <v>0.9015045307025673</v>
       </c>
       <c r="C2">
-        <v>0.04339544069544843</v>
+        <v>0.1443776275709894</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6731681490162913</v>
+        <v>0.9535363970147586</v>
       </c>
       <c r="F2">
-        <v>2.276559655965301</v>
+        <v>1.911122987954371</v>
       </c>
       <c r="G2">
-        <v>0.002430289688350901</v>
+        <v>0.0008022903249966821</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5037492469107399</v>
+        <v>0.2046358207275389</v>
       </c>
       <c r="J2">
-        <v>0.04543404102100546</v>
+        <v>0.02036371058127351</v>
       </c>
       <c r="K2">
-        <v>0.3286257949678486</v>
+        <v>0.983609735019229</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.31171027592978</v>
+        <v>0.6885543378903378</v>
       </c>
       <c r="O2">
-        <v>2.330852130569127</v>
+        <v>1.064803216043188</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2843165961010925</v>
+        <v>0.7840603742669998</v>
       </c>
       <c r="C3">
-        <v>0.03788059928024268</v>
+        <v>0.1262937543807823</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.645254848475588</v>
+        <v>0.8343939121028399</v>
       </c>
       <c r="F3">
-        <v>2.24679625162679</v>
+        <v>1.728717450566478</v>
       </c>
       <c r="G3">
-        <v>0.002432391713797773</v>
+        <v>0.0008055578056325585</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5095548468417874</v>
+        <v>0.2109525468640072</v>
       </c>
       <c r="J3">
-        <v>0.04582909655639433</v>
+        <v>0.02034807484204748</v>
       </c>
       <c r="K3">
-        <v>0.2900573016790986</v>
+        <v>0.8560285235622871</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.324549781672978</v>
+        <v>0.7178106317437276</v>
       </c>
       <c r="O3">
-        <v>2.350141138592591</v>
+        <v>1.061298790486376</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2626137664573207</v>
+        <v>0.7120240975106071</v>
       </c>
       <c r="C4">
-        <v>0.03448174982037244</v>
+        <v>0.1152069505153577</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.628453221452574</v>
+        <v>0.7622327994871938</v>
       </c>
       <c r="F4">
-        <v>2.229863603246784</v>
+        <v>1.619854004005674</v>
       </c>
       <c r="G4">
-        <v>0.002433750412389983</v>
+        <v>0.0008076267872286602</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5133955085443631</v>
+        <v>0.2153618691129786</v>
       </c>
       <c r="J4">
-        <v>0.04609840770437401</v>
+        <v>0.02039269724392945</v>
       </c>
       <c r="K4">
-        <v>0.2663568733037494</v>
+        <v>0.7777760784405814</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.332895341091536</v>
+        <v>0.7366894394768657</v>
       </c>
       <c r="O4">
-        <v>2.363349020189617</v>
+        <v>1.061864326717028</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2537709512309334</v>
+        <v>0.6826784122796994</v>
       </c>
       <c r="C5">
-        <v>0.03309353959436123</v>
+        <v>0.1106911351661353</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6216911280433237</v>
+        <v>0.7330482246175904</v>
       </c>
       <c r="F5">
-        <v>2.223300561978917</v>
+        <v>1.5762168497033</v>
       </c>
       <c r="G5">
-        <v>0.002434321254630167</v>
+        <v>0.0008084860071117052</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5150299698095271</v>
+        <v>0.2172869703036078</v>
       </c>
       <c r="J5">
-        <v>0.04621487299767857</v>
+        <v>0.02042384998996738</v>
       </c>
       <c r="K5">
-        <v>0.2566944496635841</v>
+        <v>0.7458976229210208</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.336412455406798</v>
+        <v>0.7446071675896135</v>
       </c>
       <c r="O5">
-        <v>2.369074177446691</v>
+        <v>1.062746074680362</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2523027006300822</v>
+        <v>0.6778059114484449</v>
       </c>
       <c r="C6">
-        <v>0.03286283935403844</v>
+        <v>0.1099413592648517</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6205734008105566</v>
+        <v>0.7282147516533541</v>
       </c>
       <c r="F6">
-        <v>2.222231126725831</v>
+        <v>1.569012998554868</v>
       </c>
       <c r="G6">
-        <v>0.002434417080644394</v>
+        <v>0.0008086296608863435</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5153055588335071</v>
+        <v>0.2176142310937621</v>
       </c>
       <c r="J6">
-        <v>0.04623461758017555</v>
+        <v>0.02042978735499901</v>
       </c>
       <c r="K6">
-        <v>0.2550897669673589</v>
+        <v>0.7406045336698384</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.337003490993236</v>
+        <v>0.7459352956781302</v>
       </c>
       <c r="O6">
-        <v>2.370045535067518</v>
+        <v>1.06293091928633</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2624945033302311</v>
+        <v>0.7116283038315316</v>
       </c>
       <c r="C7">
-        <v>0.0344630406309534</v>
+        <v>0.1151460425927837</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6283616826546137</v>
+        <v>0.7618383442958816</v>
       </c>
       <c r="F7">
-        <v>2.229773727145229</v>
+        <v>1.619262640191522</v>
       </c>
       <c r="G7">
-        <v>0.002433758041527045</v>
+        <v>0.0008076383094766246</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5134172706790245</v>
+        <v>0.2153873190632414</v>
       </c>
       <c r="J7">
-        <v>0.04609995120023136</v>
+        <v>0.02039306572520161</v>
       </c>
       <c r="K7">
-        <v>0.266226579219591</v>
+        <v>0.7773461275423301</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.332942303450533</v>
+        <v>0.7367953192239938</v>
       </c>
       <c r="O7">
-        <v>2.363424843844484</v>
+        <v>1.061873622349026</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3074783544509501</v>
+        <v>0.8609885205340504</v>
       </c>
       <c r="C8">
-        <v>0.04149658802610645</v>
+        <v>0.1381375346605722</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.66347357630913</v>
+        <v>0.9122325481330336</v>
       </c>
       <c r="F8">
-        <v>2.266018428670563</v>
+        <v>1.847540152206506</v>
       </c>
       <c r="G8">
-        <v>0.002431000374511178</v>
+        <v>0.0008034041278985894</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5056937090266835</v>
+        <v>0.2067004399036065</v>
       </c>
       <c r="J8">
-        <v>0.04556470118813749</v>
+        <v>0.02034665339853881</v>
       </c>
       <c r="K8">
-        <v>0.3153316705864881</v>
+        <v>0.9395957727084578</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.316041466109088</v>
+        <v>0.6984484166847302</v>
       </c>
       <c r="O8">
-        <v>2.337219663813102</v>
+        <v>1.063011159436172</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3956952997791348</v>
+        <v>1.154933165338463</v>
       </c>
       <c r="C9">
-        <v>0.05518711476585736</v>
+        <v>0.183459434745231</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7350126312320668</v>
+        <v>1.216405966255309</v>
       </c>
       <c r="F9">
-        <v>2.34776701983256</v>
+        <v>2.323102220321275</v>
       </c>
       <c r="G9">
-        <v>0.002426130185623543</v>
+        <v>0.0007955834251416761</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4927395964035739</v>
+        <v>0.1941247886393569</v>
       </c>
       <c r="J9">
-        <v>0.04472760018300193</v>
+        <v>0.02071777823571708</v>
       </c>
       <c r="K9">
-        <v>0.4114556756525189</v>
+        <v>1.25896160546867</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.286562868561028</v>
+        <v>0.6307820654279652</v>
       </c>
       <c r="O9">
-        <v>2.296668556491923</v>
+        <v>1.088329249511176</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4604910639335458</v>
+        <v>1.372232559984525</v>
       </c>
       <c r="C10">
-        <v>0.06518236297753788</v>
+        <v>0.2170585449541562</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7892274922030964</v>
+        <v>1.447611611831746</v>
       </c>
       <c r="F10">
-        <v>2.414376137777765</v>
+        <v>2.69409948274685</v>
       </c>
       <c r="G10">
-        <v>0.002422876512005626</v>
+        <v>0.0007901090279174849</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4845608227211358</v>
+        <v>0.1879675370967249</v>
       </c>
       <c r="J10">
-        <v>0.04424259053751101</v>
+        <v>0.02131955278266418</v>
       </c>
       <c r="K10">
-        <v>0.4819558461101678</v>
+        <v>1.49515093419032</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.267135028194719</v>
+        <v>0.5860518648985895</v>
       </c>
       <c r="O10">
-        <v>2.273499638586898</v>
+        <v>1.123262991597585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4899608423780251</v>
+        <v>1.471547505762942</v>
       </c>
       <c r="C11">
-        <v>0.06971562052022762</v>
+        <v>0.2324477096601356</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.814254998374409</v>
+        <v>1.554986216654072</v>
       </c>
       <c r="F11">
-        <v>2.446110000107126</v>
+        <v>2.868685651014005</v>
       </c>
       <c r="G11">
-        <v>0.002421466086915623</v>
+        <v>0.0007876721460457206</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4811312906421463</v>
+        <v>0.1859221580869637</v>
       </c>
       <c r="J11">
-        <v>0.04405027664324734</v>
+        <v>0.02167617651467069</v>
       </c>
       <c r="K11">
-        <v>0.5139982935104968</v>
+        <v>1.603136401670298</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.258780333982834</v>
+        <v>0.5668783650961124</v>
       </c>
       <c r="O11">
-        <v>2.264401704047742</v>
+        <v>1.143241466353629</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.501118937803966</v>
+        <v>1.509237146955087</v>
       </c>
       <c r="C12">
-        <v>0.0714302546095098</v>
+        <v>0.2382937396006355</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8237849555028873</v>
+        <v>1.596009454140841</v>
       </c>
       <c r="F12">
-        <v>2.458333446654365</v>
+        <v>2.935735575589746</v>
       </c>
       <c r="G12">
-        <v>0.002420941964008004</v>
+        <v>0.0007867565734216431</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4798745173049497</v>
+        <v>0.1852640769212961</v>
       </c>
       <c r="J12">
-        <v>0.04398153284152073</v>
+        <v>0.02182417257519376</v>
       </c>
       <c r="K12">
-        <v>0.5261274038255976</v>
+        <v>1.644123284242141</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.255686071788105</v>
+        <v>0.5597952023121735</v>
       </c>
       <c r="O12">
-        <v>2.26116418299182</v>
+        <v>1.151443206218715</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4987159170351845</v>
+        <v>1.501116152954353</v>
       </c>
       <c r="C13">
-        <v>0.07106106779804122</v>
+        <v>0.2370338123160707</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8217301682369822</v>
+        <v>1.587157437245835</v>
       </c>
       <c r="F13">
-        <v>2.455691716388401</v>
+        <v>2.921251747742758</v>
       </c>
       <c r="G13">
-        <v>0.002421054400445348</v>
+        <v>0.0007869534449286247</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.480143320652072</v>
+        <v>0.1854004965539353</v>
       </c>
       <c r="J13">
-        <v>0.04399615638838128</v>
+        <v>0.02179170566357769</v>
       </c>
       <c r="K13">
-        <v>0.52351539979432</v>
+        <v>1.635291504915301</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.256349386282089</v>
+        <v>0.5613126549914043</v>
       </c>
       <c r="O13">
-        <v>2.261852199322902</v>
+        <v>1.149647700349959</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4908788584272941</v>
+        <v>1.474646540319668</v>
       </c>
       <c r="C14">
-        <v>0.069856725122321</v>
+        <v>0.2329282748117265</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.815037979176239</v>
+        <v>1.558353668086554</v>
       </c>
       <c r="F14">
-        <v>2.447111488807451</v>
+        <v>2.874182477936813</v>
       </c>
       <c r="G14">
-        <v>0.002421422767225234</v>
+        <v>0.0007875966793785613</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4810270547057129</v>
+        <v>0.1858656366059499</v>
       </c>
       <c r="J14">
-        <v>0.04404453920261986</v>
+        <v>0.02168808648139375</v>
       </c>
       <c r="K14">
-        <v>0.514996259613298</v>
+        <v>1.606506406774855</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.258524374658492</v>
+        <v>0.5662920222063583</v>
       </c>
       <c r="O14">
-        <v>2.264131187223455</v>
+        <v>1.143903183897095</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4860782248745465</v>
+        <v>1.458444165477118</v>
       </c>
       <c r="C15">
-        <v>0.06911876687645702</v>
+        <v>0.2304160291175492</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8109456714637986</v>
+        <v>1.540759239778382</v>
       </c>
       <c r="F15">
-        <v>2.441882760357402</v>
+        <v>2.845476501197084</v>
       </c>
       <c r="G15">
-        <v>0.002421649700431162</v>
+        <v>0.0007879916052223412</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4815738279931523</v>
+        <v>0.1861659560737081</v>
       </c>
       <c r="J15">
-        <v>0.04407470684577675</v>
+        <v>0.0216263353355437</v>
       </c>
       <c r="K15">
-        <v>0.5097774149999736</v>
+        <v>1.588887627681771</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.259865666310304</v>
+        <v>0.5693653976244697</v>
       </c>
       <c r="O15">
-        <v>2.265554188236592</v>
+        <v>1.140468875738975</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4585649708464814</v>
+        <v>1.365752647695359</v>
       </c>
       <c r="C16">
-        <v>0.06488582519327224</v>
+        <v>0.2160552203928887</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7875992379799612</v>
+        <v>1.440642552264862</v>
       </c>
       <c r="F16">
-        <v>2.412331130241938</v>
+        <v>2.682815392613321</v>
       </c>
       <c r="G16">
-        <v>0.002422970084942784</v>
+        <v>0.0007902693204957223</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.484790812659142</v>
+        <v>0.1881170665194816</v>
       </c>
       <c r="J16">
-        <v>0.04425572933015332</v>
+        <v>0.02129800069094046</v>
       </c>
       <c r="K16">
-        <v>0.479861175028276</v>
+        <v>1.4881061713902</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.267690749319385</v>
+        <v>0.5873292485750241</v>
       </c>
       <c r="O16">
-        <v>2.274123251158343</v>
+        <v>1.122043665678873</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4416844900978276</v>
+        <v>1.309018256637842</v>
       </c>
       <c r="C17">
-        <v>0.06228552426878764</v>
+        <v>0.207274499321116</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7733704947080753</v>
+        <v>1.379819039121173</v>
       </c>
       <c r="F17">
-        <v>2.394569518881781</v>
+        <v>2.58458743986759</v>
       </c>
       <c r="G17">
-        <v>0.002423797913512292</v>
+        <v>0.0007916799947114059</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4868389158694235</v>
+        <v>0.1895129154546886</v>
       </c>
       <c r="J17">
-        <v>0.04437404043146032</v>
+        <v>0.02111851381687124</v>
       </c>
       <c r="K17">
-        <v>0.4615008350597805</v>
+        <v>1.426430579103055</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.272614928215127</v>
+        <v>0.5986561991931971</v>
       </c>
       <c r="O17">
-        <v>2.279749603085932</v>
+        <v>1.111820633641813</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4319747412033621</v>
+        <v>1.276428910792333</v>
       </c>
       <c r="C18">
-        <v>0.06078862003779761</v>
+        <v>0.2022336986156006</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7652208366309736</v>
+        <v>1.345038798768613</v>
       </c>
       <c r="F18">
-        <v>2.384488367072009</v>
+        <v>2.528630325549557</v>
       </c>
       <c r="G18">
-        <v>0.00242428062069059</v>
+        <v>0.0007924964377411241</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4880443201234783</v>
+        <v>0.1903863910114367</v>
       </c>
       <c r="J18">
-        <v>0.04444475486579513</v>
+        <v>0.0210230116552097</v>
       </c>
       <c r="K18">
-        <v>0.4509378114484548</v>
+        <v>1.391006288731887</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.27549265939383</v>
+        <v>0.6052811664442892</v>
       </c>
       <c r="O18">
-        <v>2.283121412548908</v>
+        <v>1.106322180126895</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4286871117356839</v>
+        <v>1.265401643481766</v>
       </c>
       <c r="C19">
-        <v>0.06028157574826309</v>
+        <v>0.2005285261651011</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7624673967507647</v>
+        <v>1.333296463613408</v>
       </c>
       <c r="F19">
-        <v>2.381098210448727</v>
+        <v>2.509774182822468</v>
       </c>
       <c r="G19">
-        <v>0.002424445185609116</v>
+        <v>0.0007927737540342266</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.488457151457748</v>
+        <v>0.1906940349770565</v>
       </c>
       <c r="J19">
-        <v>0.04446915500440518</v>
+        <v>0.02099197440347744</v>
       </c>
       <c r="K19">
-        <v>0.4473609171378428</v>
+        <v>1.379020297753357</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.276474819749449</v>
+        <v>0.6075429091556863</v>
       </c>
       <c r="O19">
-        <v>2.284286341898252</v>
+        <v>1.104524608926269</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4434815065283146</v>
+        <v>1.31505320135895</v>
       </c>
       <c r="C20">
-        <v>0.06256246358590545</v>
+        <v>0.2082082007913471</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.774881613984121</v>
+        <v>1.386272385302007</v>
       </c>
       <c r="F20">
-        <v>2.396446312242944</v>
+        <v>2.594987275369647</v>
       </c>
       <c r="G20">
-        <v>0.002423709110729057</v>
+        <v>0.0007915293054516457</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4866180566031453</v>
+        <v>0.1893569612434263</v>
       </c>
       <c r="J20">
-        <v>0.04436117012868479</v>
+        <v>0.02113681284096458</v>
       </c>
       <c r="K20">
-        <v>0.4634556022020035</v>
+        <v>1.432990768672454</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.272086034570478</v>
+        <v>0.5974389808763618</v>
       </c>
       <c r="O20">
-        <v>2.279136623333031</v>
+        <v>1.112869061662153</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4931808370883743</v>
+        <v>1.482418981647527</v>
       </c>
       <c r="C21">
-        <v>0.07021052478350498</v>
+        <v>0.2341336401001399</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.8170022093123634</v>
+        <v>1.566803791888447</v>
       </c>
       <c r="F21">
-        <v>2.449626101076092</v>
+        <v>2.887981555009361</v>
       </c>
       <c r="G21">
-        <v>0.002421314298808236</v>
+        <v>0.0007874075537413931</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4807663424773416</v>
+        <v>0.185725788002415</v>
       </c>
       <c r="J21">
-        <v>0.04403021715989297</v>
+        <v>0.021718161831636</v>
       </c>
       <c r="K21">
-        <v>0.5174986689314096</v>
+        <v>1.614958561555682</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.257883642141891</v>
+        <v>0.564824575176857</v>
       </c>
       <c r="O21">
-        <v>2.263456154342691</v>
+        <v>1.145572812150249</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5256533818001117</v>
+        <v>1.592283222713718</v>
       </c>
       <c r="C22">
-        <v>0.07519722248797223</v>
+        <v>0.2511869942188127</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8448370049441678</v>
+        <v>1.686931255204442</v>
       </c>
       <c r="F22">
-        <v>2.485586145855564</v>
+        <v>3.084991041001302</v>
       </c>
       <c r="G22">
-        <v>0.002419807268647326</v>
+        <v>0.000784755603277715</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4771862584458972</v>
+        <v>0.1840354587916906</v>
       </c>
       <c r="J22">
-        <v>0.04383771338738285</v>
+        <v>0.0221741322457838</v>
       </c>
       <c r="K22">
-        <v>0.5527914532360114</v>
+        <v>1.734448585915374</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.24900654044113</v>
+        <v>0.5445477326525676</v>
       </c>
       <c r="O22">
-        <v>2.254418680847522</v>
+        <v>1.17068086477363</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5083231763297817</v>
+        <v>1.533597506123357</v>
       </c>
       <c r="C23">
-        <v>0.07253682056455091</v>
+        <v>0.2420740561112638</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.8299529635148417</v>
+        <v>1.622604529341302</v>
       </c>
       <c r="F23">
-        <v>2.466283278670716</v>
+        <v>2.979302292603052</v>
       </c>
       <c r="G23">
-        <v>0.002420606296268576</v>
+        <v>0.0007861673320524355</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4790746368696652</v>
+        <v>0.1848724092381211</v>
       </c>
       <c r="J23">
-        <v>0.04393827621639446</v>
+        <v>0.02192345257465433</v>
       </c>
       <c r="K23">
-        <v>0.5339577363973547</v>
+        <v>1.67061686842456</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.253707357977312</v>
+        <v>0.5552718636271123</v>
       </c>
       <c r="O23">
-        <v>2.259131262410108</v>
+        <v>1.156921496954595</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4426690907295949</v>
+        <v>1.312324716679598</v>
       </c>
       <c r="C24">
-        <v>0.06243726541107719</v>
+        <v>0.20778605170932</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7741983415410942</v>
+        <v>1.383354245369247</v>
       </c>
       <c r="F24">
-        <v>2.395597408316718</v>
+        <v>2.590283911797258</v>
       </c>
       <c r="G24">
-        <v>0.002423749237531019</v>
+        <v>0.0007915974151395395</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4867178201046229</v>
+        <v>0.1894272476286041</v>
       </c>
       <c r="J24">
-        <v>0.04436698039639708</v>
+        <v>0.02112851598530874</v>
       </c>
       <c r="K24">
-        <v>0.4625718750446026</v>
+        <v>1.430024802882116</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.272325001745212</v>
+        <v>0.5979889340945164</v>
       </c>
       <c r="O24">
-        <v>2.2794133243017</v>
+        <v>1.112393890786919</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3718318972936174</v>
+        <v>1.075231932361419</v>
       </c>
       <c r="C25">
-        <v>0.05149449886972945</v>
+        <v>0.1711579590377994</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7153701031286772</v>
+        <v>1.132923581492449</v>
       </c>
       <c r="F25">
-        <v>2.324504934259735</v>
+        <v>2.191010493931174</v>
       </c>
       <c r="G25">
-        <v>0.002427390488150344</v>
+        <v>0.0007976497339688023</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4960091310416672</v>
+        <v>0.1970133161667995</v>
       </c>
       <c r="J25">
-        <v>0.04493125997069569</v>
+        <v>0.02056321684925777</v>
       </c>
       <c r="K25">
-        <v>0.3854717414335482</v>
+        <v>1.172355528004658</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.294145741608091</v>
+        <v>0.648242265183967</v>
       </c>
       <c r="O25">
-        <v>2.306476724107114</v>
+        <v>1.078784443048079</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9015045307025673</v>
+        <v>0.7735312875752527</v>
       </c>
       <c r="C2">
-        <v>0.1443776275709894</v>
+        <v>0.1530049603463084</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9535363970147586</v>
+        <v>0.3747865267465826</v>
       </c>
       <c r="F2">
-        <v>1.911122987954371</v>
+        <v>1.705130399100057</v>
       </c>
       <c r="G2">
-        <v>0.0008022903249966821</v>
+        <v>0.5592337660210092</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001978292505392165</v>
       </c>
       <c r="I2">
-        <v>0.2046358207275389</v>
+        <v>0.001781634716853553</v>
       </c>
       <c r="J2">
-        <v>0.02036371058127351</v>
+        <v>0.4417695450977135</v>
       </c>
       <c r="K2">
-        <v>0.983609735019229</v>
+        <v>0.4058721810450052</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04576998984030611</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8782680799802733</v>
       </c>
       <c r="N2">
-        <v>0.6885543378903378</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.064803216043188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6090896597547228</v>
+      </c>
+      <c r="P2">
+        <v>0.9625099605316958</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7840603742669998</v>
+        <v>0.6726967577651806</v>
       </c>
       <c r="C3">
-        <v>0.1262937543807823</v>
+        <v>0.1329844861060963</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8343939121028399</v>
+        <v>0.3312463138295243</v>
       </c>
       <c r="F3">
-        <v>1.728717450566478</v>
+        <v>1.569368351055985</v>
       </c>
       <c r="G3">
-        <v>0.0008055578056325585</v>
+        <v>0.5378414297162379</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.003609399597624852</v>
       </c>
       <c r="I3">
-        <v>0.2109525468640072</v>
+        <v>0.002846216627347076</v>
       </c>
       <c r="J3">
-        <v>0.02034807484204748</v>
+        <v>0.4364790640747316</v>
       </c>
       <c r="K3">
-        <v>0.8560285235622871</v>
+        <v>0.4021640836448483</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04328390703392326</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7635063086769662</v>
       </c>
       <c r="N3">
-        <v>0.7178106317437276</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.061298790486376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.532281935097707</v>
+      </c>
+      <c r="P3">
+        <v>0.9954560963593568</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7120240975106071</v>
+        <v>0.6104865412208085</v>
       </c>
       <c r="C4">
-        <v>0.1152069505153577</v>
+        <v>0.1208783825101847</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7622327994871938</v>
+        <v>0.3045948177400817</v>
       </c>
       <c r="F4">
-        <v>1.619854004005674</v>
+        <v>1.486630618047016</v>
       </c>
       <c r="G4">
-        <v>0.0008076267872286602</v>
+        <v>0.5251018208247444</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004901315561222641</v>
       </c>
       <c r="I4">
-        <v>0.2153618691129786</v>
+        <v>0.003717377250476606</v>
       </c>
       <c r="J4">
-        <v>0.02039269724392945</v>
+        <v>0.4335011538886988</v>
       </c>
       <c r="K4">
-        <v>0.7777760784405814</v>
+        <v>0.400075458160515</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.04172460937266309</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6930273270856731</v>
       </c>
       <c r="N4">
-        <v>0.7366894394768657</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.061864326717028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4852165734410363</v>
+      </c>
+      <c r="P4">
+        <v>1.016233034898891</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6826784122796994</v>
+        <v>0.5843152581682602</v>
       </c>
       <c r="C5">
-        <v>0.1106911351661353</v>
+        <v>0.1162744549077814</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7330482246175904</v>
+        <v>0.2939772075761766</v>
       </c>
       <c r="F5">
-        <v>1.5762168497033</v>
+        <v>1.452409728374278</v>
       </c>
       <c r="G5">
-        <v>0.0008084860071117052</v>
+        <v>0.5193359285385455</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005499354095909681</v>
       </c>
       <c r="I5">
-        <v>0.2172869703036078</v>
+        <v>0.004201895617454099</v>
       </c>
       <c r="J5">
-        <v>0.02042384998996738</v>
+        <v>0.4320084467236924</v>
       </c>
       <c r="K5">
-        <v>0.7458976229210208</v>
+        <v>0.3987987479519717</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04107110145154547</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6640781752685285</v>
       </c>
       <c r="N5">
-        <v>0.7446071675896135</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.062746074680362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4661996456109634</v>
+      </c>
+      <c r="P5">
+        <v>1.024555499526837</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6778059114484449</v>
+        <v>0.5790560815393633</v>
       </c>
       <c r="C6">
-        <v>0.1099413592648517</v>
+        <v>0.1158644251077874</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7282147516533541</v>
+        <v>0.292491962683691</v>
       </c>
       <c r="F6">
-        <v>1.569012998554868</v>
+        <v>1.445945358872365</v>
       </c>
       <c r="G6">
-        <v>0.0008086296608863435</v>
+        <v>0.5175683222771497</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005604875815526267</v>
       </c>
       <c r="I6">
-        <v>0.2176142310937621</v>
+        <v>0.004387211407532732</v>
       </c>
       <c r="J6">
-        <v>0.02042978735499901</v>
+        <v>0.431343488347629</v>
       </c>
       <c r="K6">
-        <v>0.7406045336698384</v>
+        <v>0.3980146347351941</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0409507667303799</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6590042601602732</v>
       </c>
       <c r="N6">
-        <v>0.7459352956781302</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.06293091928633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4632191868756479</v>
+      </c>
+      <c r="P6">
+        <v>1.025607436557295</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7116283038315316</v>
+        <v>0.6076427245845935</v>
       </c>
       <c r="C7">
-        <v>0.1151460425927837</v>
+        <v>0.1217790951846638</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7618383442958816</v>
+        <v>0.3052090403434278</v>
       </c>
       <c r="F7">
-        <v>1.619262640191522</v>
+        <v>1.484010015130892</v>
       </c>
       <c r="G7">
-        <v>0.0008076383094766246</v>
+        <v>0.5227958918896363</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004914305488608828</v>
       </c>
       <c r="I7">
-        <v>0.2153873190632414</v>
+        <v>0.003985173283436616</v>
       </c>
       <c r="J7">
-        <v>0.02039306572520161</v>
+        <v>0.4323323944904587</v>
       </c>
       <c r="K7">
-        <v>0.7773461275423301</v>
+        <v>0.3984890505424943</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04168514311926663</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6919072779546411</v>
       </c>
       <c r="N7">
-        <v>0.7367953192239938</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.061873622349026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.48544232858616</v>
+      </c>
+      <c r="P7">
+        <v>1.015436780851211</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8609885205340504</v>
+        <v>0.735491206656917</v>
       </c>
       <c r="C8">
-        <v>0.1381375346605722</v>
+        <v>0.1473446698293799</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9122325481330336</v>
+        <v>0.3607633630010838</v>
       </c>
       <c r="F8">
-        <v>1.847540152206506</v>
+        <v>1.655323090556166</v>
       </c>
       <c r="G8">
-        <v>0.0008034041278985894</v>
+        <v>0.5488274612895339</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002483146121466717</v>
       </c>
       <c r="I8">
-        <v>0.2067004399036065</v>
+        <v>0.002413534044274357</v>
       </c>
       <c r="J8">
-        <v>0.02034665339853881</v>
+        <v>0.4383756130731626</v>
       </c>
       <c r="K8">
-        <v>0.9395957727084578</v>
+        <v>0.4024854943956697</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04487938490642618</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8377182527635227</v>
       </c>
       <c r="N8">
-        <v>0.6984484166847302</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.063011159436172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5832248878179911</v>
+      </c>
+      <c r="P8">
+        <v>0.9726243884699457</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.154933165338463</v>
+        <v>0.9885021749946361</v>
       </c>
       <c r="C9">
-        <v>0.183459434745231</v>
+        <v>0.1974304395465651</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.216405966255309</v>
+        <v>0.4691650873994462</v>
       </c>
       <c r="F9">
-        <v>2.323102220321275</v>
+        <v>2.000783113184923</v>
       </c>
       <c r="G9">
-        <v>0.0007955834251416761</v>
+        <v>0.6073045079665178</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.000162707659562944</v>
       </c>
       <c r="I9">
-        <v>0.1941247886393569</v>
+        <v>0.0007814415166684796</v>
       </c>
       <c r="J9">
-        <v>0.02071777823571708</v>
+        <v>0.4545475446450098</v>
       </c>
       <c r="K9">
-        <v>1.25896160546867</v>
+        <v>0.4147163610160973</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.05096085431960429</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.125228841052632</v>
       </c>
       <c r="N9">
-        <v>0.6307820654279652</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.088329249511176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7751165140956786</v>
+      </c>
+      <c r="P9">
+        <v>0.8946878578436213</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.372232559984525</v>
+        <v>1.171014967988299</v>
       </c>
       <c r="C10">
-        <v>0.2170585449541562</v>
+        <v>0.2346975347202971</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.447611611831746</v>
+        <v>0.5302998299143979</v>
       </c>
       <c r="F10">
-        <v>2.69409948274685</v>
+        <v>2.218077417345015</v>
       </c>
       <c r="G10">
-        <v>0.0007901090279174849</v>
+        <v>0.6442601530255274</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0003123233336665976</v>
       </c>
       <c r="I10">
-        <v>0.1879675370967249</v>
+        <v>0.000992582644773421</v>
       </c>
       <c r="J10">
-        <v>0.02131955278266418</v>
+        <v>0.4637229539972765</v>
       </c>
       <c r="K10">
-        <v>1.49515093419032</v>
+        <v>0.4202138270781717</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.05504755043183618</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.334019971064748</v>
       </c>
       <c r="N10">
-        <v>0.5860518648985895</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.123262991597585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8977019469952765</v>
+      </c>
+      <c r="P10">
+        <v>0.838099919196253</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.471547505762942</v>
+        <v>1.241064039403454</v>
       </c>
       <c r="C11">
-        <v>0.2324477096601356</v>
+        <v>0.2416775206963138</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.554986216654072</v>
+        <v>0.401558100599452</v>
       </c>
       <c r="F11">
-        <v>2.868685651014005</v>
+        <v>1.977505860645067</v>
       </c>
       <c r="G11">
-        <v>0.0007876721460457206</v>
+        <v>0.5944565453602024</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01883007011853266</v>
       </c>
       <c r="I11">
-        <v>0.1859221580869637</v>
+        <v>0.001681411687131096</v>
       </c>
       <c r="J11">
-        <v>0.02167617651467069</v>
+        <v>0.4345592686426158</v>
       </c>
       <c r="K11">
-        <v>1.603136401670298</v>
+        <v>0.3878726836203725</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06043404358260496</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.403582461432109</v>
       </c>
       <c r="N11">
-        <v>0.5668783650961124</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.143241466353629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7893056592447039</v>
+      </c>
+      <c r="P11">
+        <v>0.7992971014945469</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.509237146955087</v>
+        <v>1.265670874722332</v>
       </c>
       <c r="C12">
-        <v>0.2382937396006355</v>
+        <v>0.2379507305177526</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.596009454140841</v>
+        <v>0.2960400199116862</v>
       </c>
       <c r="F12">
-        <v>2.935735575589746</v>
+        <v>1.744033997979443</v>
       </c>
       <c r="G12">
-        <v>0.0007867565734216431</v>
+        <v>0.5489912141087672</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05743906973398083</v>
       </c>
       <c r="I12">
-        <v>0.1852640769212961</v>
+        <v>0.001722469862900589</v>
       </c>
       <c r="J12">
-        <v>0.02182417257519376</v>
+        <v>0.410065695584791</v>
       </c>
       <c r="K12">
-        <v>1.644123284242141</v>
+        <v>0.3624982406604005</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07190356753036653</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.418838819217171</v>
       </c>
       <c r="N12">
-        <v>0.5597952023121735</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.151443206218715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.678279703141186</v>
+      </c>
+      <c r="P12">
+        <v>0.7842015957584421</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.501116152954353</v>
+        <v>1.252496651427379</v>
       </c>
       <c r="C13">
-        <v>0.2370338123160707</v>
+        <v>0.227305780018412</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.587157437245835</v>
+        <v>0.2038887132097571</v>
       </c>
       <c r="F13">
-        <v>2.921251747742758</v>
+        <v>1.500168431848167</v>
       </c>
       <c r="G13">
-        <v>0.0007869534449286247</v>
+        <v>0.5006937720887947</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131504338857212</v>
       </c>
       <c r="I13">
-        <v>0.1854004965539353</v>
+        <v>0.001594686542788715</v>
       </c>
       <c r="J13">
-        <v>0.02179170566357769</v>
+        <v>0.3858956870523969</v>
       </c>
       <c r="K13">
-        <v>1.635291504915301</v>
+        <v>0.3385109447369565</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08841385402624269</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.391814296235168</v>
       </c>
       <c r="N13">
-        <v>0.5613126549914043</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.149647700349959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5603669603616055</v>
+      </c>
+      <c r="P13">
+        <v>0.7844995802207251</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.474646540319668</v>
+        <v>1.225418132715646</v>
       </c>
       <c r="C14">
-        <v>0.2329282748117265</v>
+        <v>0.2170841321837713</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.558353668086554</v>
+        <v>0.1483587265811792</v>
       </c>
       <c r="F14">
-        <v>2.874182477936813</v>
+        <v>1.327474694178321</v>
       </c>
       <c r="G14">
-        <v>0.0007875966793785613</v>
+        <v>0.465474327387696</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625202786884614</v>
       </c>
       <c r="I14">
-        <v>0.1858656366059499</v>
+        <v>0.001528526446911371</v>
       </c>
       <c r="J14">
-        <v>0.02168808648139375</v>
+        <v>0.3690146161523558</v>
       </c>
       <c r="K14">
-        <v>1.606506406774855</v>
+        <v>0.3221804956091106</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1031349667100372</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.353633513701112</v>
       </c>
       <c r="N14">
-        <v>0.5662920222063583</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.143903183897095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4766205095666152</v>
+      </c>
+      <c r="P14">
+        <v>0.7920170063962697</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.458444165477118</v>
+        <v>1.209738503348689</v>
       </c>
       <c r="C15">
-        <v>0.2304160291175492</v>
+        <v>0.2135292988321282</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.540759239778382</v>
+        <v>0.1357116565143883</v>
       </c>
       <c r="F15">
-        <v>2.845476501197084</v>
+        <v>1.281402899198937</v>
       </c>
       <c r="G15">
-        <v>0.0007879916052223412</v>
+        <v>0.455529623135817</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750502420923112</v>
       </c>
       <c r="I15">
-        <v>0.1861659560737081</v>
+        <v>0.001600921489369078</v>
       </c>
       <c r="J15">
-        <v>0.0216263353355437</v>
+        <v>0.364595180357739</v>
       </c>
       <c r="K15">
-        <v>1.588887627681771</v>
+        <v>0.3179620374230012</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1068033025966528</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.335124604358327</v>
       </c>
       <c r="N15">
-        <v>0.5693653976244697</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.140468875738975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4541922802727143</v>
+      </c>
+      <c r="P15">
+        <v>0.7964918865462352</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.365752647695359</v>
+        <v>1.13231179367051</v>
       </c>
       <c r="C16">
-        <v>0.2160552203928887</v>
+        <v>0.2003559353315865</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.440642552264862</v>
+        <v>0.1313000137321367</v>
       </c>
       <c r="F16">
-        <v>2.682815392613321</v>
+        <v>1.242008356947039</v>
       </c>
       <c r="G16">
-        <v>0.0007902693204957223</v>
+        <v>0.4484497891675261</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624493739867603</v>
       </c>
       <c r="I16">
-        <v>0.1881170665194816</v>
+        <v>0.001580438827229358</v>
       </c>
       <c r="J16">
-        <v>0.02129800069094046</v>
+        <v>0.3648711853594051</v>
       </c>
       <c r="K16">
-        <v>1.4881061713902</v>
+        <v>0.3195714952846984</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1011924475038199</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.250542004197086</v>
       </c>
       <c r="N16">
-        <v>0.5873292485750241</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.122043665678873</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4293821333054311</v>
+      </c>
+      <c r="P16">
+        <v>0.8182889732241652</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.309018256637842</v>
+        <v>1.087317463794335</v>
       </c>
       <c r="C17">
-        <v>0.207274499321116</v>
+        <v>0.1957338046360491</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.379819039121173</v>
+        <v>0.1554661218530278</v>
       </c>
       <c r="F17">
-        <v>2.58458743986759</v>
+        <v>1.3014274086146</v>
       </c>
       <c r="G17">
-        <v>0.0007916799947114059</v>
+        <v>0.4615400833487371</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1247534713943139</v>
       </c>
       <c r="I17">
-        <v>0.1895129154546886</v>
+        <v>0.001646686969029254</v>
       </c>
       <c r="J17">
-        <v>0.02111851381687124</v>
+        <v>0.3740047087212872</v>
       </c>
       <c r="K17">
-        <v>1.426430579103055</v>
+        <v>0.3293786283185547</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08849486183877531</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.206028428955904</v>
       </c>
       <c r="N17">
-        <v>0.5986561991931971</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.111820633641813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4535762218395547</v>
+      </c>
+      <c r="P17">
+        <v>0.8310330817261509</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.276428910792333</v>
+        <v>1.067156699751422</v>
       </c>
       <c r="C18">
-        <v>0.2022336986156006</v>
+        <v>0.1970706164796212</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.345038798768613</v>
+        <v>0.2153184177419192</v>
       </c>
       <c r="F18">
-        <v>2.528630325549557</v>
+        <v>1.460970908613177</v>
       </c>
       <c r="G18">
-        <v>0.0007924964377411241</v>
+        <v>0.4956324499327565</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07187174833452303</v>
       </c>
       <c r="I18">
-        <v>0.1903863910114367</v>
+        <v>0.001439593926630955</v>
       </c>
       <c r="J18">
-        <v>0.0210230116552097</v>
+        <v>0.3928235478632445</v>
       </c>
       <c r="K18">
-        <v>1.391006288731887</v>
+        <v>0.3488260851490388</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07177271205024738</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.191223769044655</v>
       </c>
       <c r="N18">
-        <v>0.6052811664442892</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.106322180126895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5263653832792272</v>
+      </c>
+      <c r="P18">
+        <v>0.8396547722718637</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.265401643481766</v>
+        <v>1.063483674731486</v>
       </c>
       <c r="C19">
-        <v>0.2005285261651011</v>
+        <v>0.2049469173190772</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.333296463613408</v>
+        <v>0.313988572218264</v>
       </c>
       <c r="F19">
-        <v>2.509774182822468</v>
+        <v>1.698210848441022</v>
       </c>
       <c r="G19">
-        <v>0.0007927737540342266</v>
+        <v>0.5418848741979474</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02643804485003898</v>
       </c>
       <c r="I19">
-        <v>0.1906940349770565</v>
+        <v>0.001549483880647351</v>
       </c>
       <c r="J19">
-        <v>0.02099197440347744</v>
+        <v>0.4167662705754651</v>
       </c>
       <c r="K19">
-        <v>1.379020297753357</v>
+        <v>0.3729751425893433</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.05855790475151146</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.199812125836644</v>
       </c>
       <c r="N19">
-        <v>0.6075429091556863</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.104524608926269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6404760215222751</v>
+      </c>
+      <c r="P19">
+        <v>0.8472838184826735</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.31505320135895</v>
+        <v>1.115103388293761</v>
       </c>
       <c r="C20">
-        <v>0.2082082007913471</v>
+        <v>0.2278463038053076</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.386272385302007</v>
+        <v>0.5157660375672179</v>
       </c>
       <c r="F20">
-        <v>2.594987275369647</v>
+        <v>2.15234982220386</v>
       </c>
       <c r="G20">
-        <v>0.0007915293054516457</v>
+        <v>0.6271866507762098</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001412837893370877</v>
       </c>
       <c r="I20">
-        <v>0.1893569612434263</v>
+        <v>0.001619223020363769</v>
       </c>
       <c r="J20">
-        <v>0.02113681284096458</v>
+        <v>0.4575388364425237</v>
       </c>
       <c r="K20">
-        <v>1.432990768672454</v>
+        <v>0.4137418331925069</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.05388672953550433</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.276647048251334</v>
       </c>
       <c r="N20">
-        <v>0.5974389808763618</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.112869061662153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.866165219615624</v>
+      </c>
+      <c r="P20">
+        <v>0.8504223204185699</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.482418981647527</v>
+        <v>1.258038662670884</v>
       </c>
       <c r="C21">
-        <v>0.2341336401001399</v>
+        <v>0.2584185041227158</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.566803791888447</v>
+        <v>0.5928781999635717</v>
       </c>
       <c r="F21">
-        <v>2.887981555009361</v>
+        <v>2.383996762749177</v>
       </c>
       <c r="G21">
-        <v>0.0007874075537413931</v>
+        <v>0.6695332165352994</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0006442368807249022</v>
       </c>
       <c r="I21">
-        <v>0.185725788002415</v>
+        <v>0.002073618258899401</v>
       </c>
       <c r="J21">
-        <v>0.021718161831636</v>
+        <v>0.4716837074472693</v>
       </c>
       <c r="K21">
-        <v>1.614958561555682</v>
+        <v>0.4253785225362137</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.05741016820955624</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.442007677055472</v>
       </c>
       <c r="N21">
-        <v>0.564824575176857</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.145572812150249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9906678898937997</v>
+      </c>
+      <c r="P21">
+        <v>0.8116737383350578</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.592283222713718</v>
+        <v>1.354186150816844</v>
       </c>
       <c r="C22">
-        <v>0.2511869942188127</v>
+        <v>0.2767595299682881</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.686931255204442</v>
+        <v>0.6324735997211945</v>
       </c>
       <c r="F22">
-        <v>3.084991041001302</v>
+        <v>2.519081988414172</v>
       </c>
       <c r="G22">
-        <v>0.000784755603277715</v>
+        <v>0.6968981175404565</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001423055205499235</v>
       </c>
       <c r="I22">
-        <v>0.1840354587916906</v>
+        <v>0.002355251380079082</v>
       </c>
       <c r="J22">
-        <v>0.0221741322457838</v>
+        <v>0.4808403142114202</v>
       </c>
       <c r="K22">
-        <v>1.734448585915374</v>
+        <v>0.4332745420520823</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.05961537499413838</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.549987992765864</v>
       </c>
       <c r="N22">
-        <v>0.5445477326525676</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.17068086477363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.061726804340786</v>
+      </c>
+      <c r="P22">
+        <v>0.7868650672153397</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.533597506123357</v>
+        <v>1.305928849654208</v>
       </c>
       <c r="C23">
-        <v>0.2420740561112638</v>
+        <v>0.2657600710961958</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.622604529341302</v>
+        <v>0.6104028053219537</v>
       </c>
       <c r="F23">
-        <v>2.979302292603052</v>
+        <v>2.449422114654908</v>
       </c>
       <c r="G23">
-        <v>0.0007861673320524355</v>
+        <v>0.6848347692064465</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0009731483858799184</v>
       </c>
       <c r="I23">
-        <v>0.1848724092381211</v>
+        <v>0.001885470673768097</v>
       </c>
       <c r="J23">
-        <v>0.02192345257465433</v>
+        <v>0.4772429678805707</v>
       </c>
       <c r="K23">
-        <v>1.67061686842456</v>
+        <v>0.4308441128811111</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.05847311786714049</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.493230011400868</v>
       </c>
       <c r="N23">
-        <v>0.5552718636271123</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.156921496954595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.023192601102629</v>
+      </c>
+      <c r="P23">
+        <v>0.800858701896221</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.312324716679598</v>
+        <v>1.118195800936007</v>
       </c>
       <c r="C24">
-        <v>0.20778605170932</v>
+        <v>0.2266274281861769</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.383354245369247</v>
+        <v>0.5286793377043466</v>
       </c>
       <c r="F24">
-        <v>2.590283911797258</v>
+        <v>2.184054840028367</v>
       </c>
       <c r="G24">
-        <v>0.0007915974151395395</v>
+        <v>0.6363962448336196</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.475638095329359E-05</v>
       </c>
       <c r="I24">
-        <v>0.1894272476286041</v>
+        <v>0.001134805889559942</v>
       </c>
       <c r="J24">
-        <v>0.02112851598530874</v>
+        <v>0.462300245800634</v>
       </c>
       <c r="K24">
-        <v>1.430024802882116</v>
+        <v>0.4193800625882105</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.0540776703105823</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.277514517496428</v>
       </c>
       <c r="N24">
-        <v>0.5979889340945164</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.112393890786919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8787718079686826</v>
+      </c>
+      <c r="P24">
+        <v>0.8539089479922186</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.075231932361419</v>
+        <v>0.9156653727819446</v>
       </c>
       <c r="C25">
-        <v>0.1711579590377994</v>
+        <v>0.1854456267368647</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.132923581492449</v>
+        <v>0.4411158911202122</v>
       </c>
       <c r="F25">
-        <v>2.191010493931174</v>
+        <v>1.902705083310181</v>
       </c>
       <c r="G25">
-        <v>0.0007976497339688023</v>
+        <v>0.5870613109151037</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0005089834491065481</v>
       </c>
       <c r="I25">
-        <v>0.1970133161667995</v>
+        <v>0.001442321802795021</v>
       </c>
       <c r="J25">
-        <v>0.02056321684925777</v>
+        <v>0.4478588913457315</v>
       </c>
       <c r="K25">
-        <v>1.172355528004658</v>
+        <v>0.408417933241445</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04928431392709709</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.046009090534881</v>
       </c>
       <c r="N25">
-        <v>0.648242265183967</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.078784443048079</v>
+        <v>0.7239398128497001</v>
+      </c>
+      <c r="P25">
+        <v>0.9138509621614901</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7735312875752527</v>
+        <v>0.7267178600480406</v>
       </c>
       <c r="C2">
-        <v>0.1530049603463084</v>
+        <v>0.1690602823717029</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3747865267465826</v>
+        <v>0.3947171769456048</v>
       </c>
       <c r="F2">
-        <v>1.705130399100057</v>
+        <v>1.656158493867196</v>
       </c>
       <c r="G2">
-        <v>0.5592337660210092</v>
+        <v>0.4856074669438613</v>
       </c>
       <c r="H2">
-        <v>0.001978292505392165</v>
+        <v>0.001775659832567111</v>
       </c>
       <c r="I2">
-        <v>0.001781634716853553</v>
+        <v>0.001217071160798611</v>
       </c>
       <c r="J2">
-        <v>0.4417695450977135</v>
+        <v>0.4334368484079363</v>
       </c>
       <c r="K2">
-        <v>0.4058721810450052</v>
+        <v>0.3567776020860158</v>
       </c>
       <c r="L2">
-        <v>0.04576998984030611</v>
+        <v>0.175359904348948</v>
       </c>
       <c r="M2">
-        <v>0.8782680799802733</v>
+        <v>0.0988464546096548</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.04430142752215893</v>
       </c>
       <c r="O2">
-        <v>0.6090896597547228</v>
+        <v>0.8664692345174387</v>
       </c>
       <c r="P2">
-        <v>0.9625099605316958</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6206600972149019</v>
+      </c>
+      <c r="R2">
+        <v>0.9184137699307922</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6726967577651806</v>
+        <v>0.6360936060630422</v>
       </c>
       <c r="C3">
-        <v>0.1329844861060963</v>
+        <v>0.1450576243655064</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3312463138295243</v>
+        <v>0.3484279731866167</v>
       </c>
       <c r="F3">
-        <v>1.569368351055985</v>
+        <v>1.52821939230202</v>
       </c>
       <c r="G3">
-        <v>0.5378414297162379</v>
+        <v>0.4721377204621504</v>
       </c>
       <c r="H3">
-        <v>0.003609399597624852</v>
+        <v>0.003277959877910241</v>
       </c>
       <c r="I3">
-        <v>0.002846216627347076</v>
+        <v>0.001883371859315197</v>
       </c>
       <c r="J3">
-        <v>0.4364790640747316</v>
+        <v>0.4275719761774184</v>
       </c>
       <c r="K3">
-        <v>0.4021640836448483</v>
+        <v>0.3566264618966812</v>
       </c>
       <c r="L3">
-        <v>0.04328390703392326</v>
+        <v>0.1795485649944304</v>
       </c>
       <c r="M3">
-        <v>0.7635063086769662</v>
+        <v>0.09589957276156547</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.04181100180498065</v>
       </c>
       <c r="O3">
-        <v>0.532281935097707</v>
+        <v>0.7549097104541431</v>
       </c>
       <c r="P3">
-        <v>0.9954560963593568</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5419003338097852</v>
+      </c>
+      <c r="R3">
+        <v>0.9497261330823639</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6104865412208085</v>
+        <v>0.5799670666049508</v>
       </c>
       <c r="C4">
-        <v>0.1208783825101847</v>
+        <v>0.1305914284139504</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3045948177400817</v>
+        <v>0.3201340579486782</v>
       </c>
       <c r="F4">
-        <v>1.486630618047016</v>
+        <v>1.450151819929943</v>
       </c>
       <c r="G4">
-        <v>0.5251018208247444</v>
+        <v>0.4642353055105772</v>
       </c>
       <c r="H4">
-        <v>0.004901315561222641</v>
+        <v>0.004472822888068939</v>
       </c>
       <c r="I4">
-        <v>0.003717377250476606</v>
+        <v>0.002466279866615295</v>
       </c>
       <c r="J4">
-        <v>0.4335011538886988</v>
+        <v>0.4240034231453862</v>
       </c>
       <c r="K4">
-        <v>0.400075458160515</v>
+        <v>0.3566227630228198</v>
       </c>
       <c r="L4">
-        <v>0.04172460937266309</v>
+        <v>0.1821531534653467</v>
       </c>
       <c r="M4">
-        <v>0.6930273270856731</v>
+        <v>0.09463447094023536</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04025250960701188</v>
       </c>
       <c r="O4">
-        <v>0.4852165734410363</v>
+        <v>0.6862923911067753</v>
       </c>
       <c r="P4">
-        <v>1.016233034898891</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4936518392745626</v>
+      </c>
+      <c r="R4">
+        <v>0.9695093716068639</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5843152581682602</v>
+        <v>0.556272729615074</v>
       </c>
       <c r="C5">
-        <v>0.1162744549077814</v>
+        <v>0.125058138977451</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2939772075761766</v>
+        <v>0.3088565201109361</v>
       </c>
       <c r="F5">
-        <v>1.452409728374278</v>
+        <v>1.417829365789544</v>
       </c>
       <c r="G5">
-        <v>0.5193359285385455</v>
+        <v>0.4604948698049327</v>
       </c>
       <c r="H5">
-        <v>0.005499354095909681</v>
+        <v>0.005026829611170291</v>
       </c>
       <c r="I5">
-        <v>0.004201895617454099</v>
+        <v>0.002834061161637536</v>
       </c>
       <c r="J5">
-        <v>0.4320084467236924</v>
+        <v>0.4222269372481264</v>
       </c>
       <c r="K5">
-        <v>0.3987987479519717</v>
+        <v>0.356222352281943</v>
       </c>
       <c r="L5">
-        <v>0.04107110145154547</v>
+        <v>0.1830149759777733</v>
       </c>
       <c r="M5">
-        <v>0.6640781752685285</v>
+        <v>0.09414612130991173</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.03960309863944467</v>
       </c>
       <c r="O5">
-        <v>0.4661996456109634</v>
+        <v>0.6580855837914044</v>
       </c>
       <c r="P5">
-        <v>1.024555499526837</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4741538215888212</v>
+      </c>
+      <c r="R5">
+        <v>0.9774978819601512</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5790560815393633</v>
+        <v>0.5514748388483781</v>
       </c>
       <c r="C6">
-        <v>0.1158644251077874</v>
+        <v>0.1245090903748718</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.292491962683691</v>
+        <v>0.307259884741832</v>
       </c>
       <c r="F6">
-        <v>1.445945358872365</v>
+        <v>1.411712061108858</v>
       </c>
       <c r="G6">
-        <v>0.5175683222771497</v>
+        <v>0.4591385018668959</v>
       </c>
       <c r="H6">
-        <v>0.005604875815526267</v>
+        <v>0.005124546179894107</v>
       </c>
       <c r="I6">
-        <v>0.004387211407532732</v>
+        <v>0.003014555888754877</v>
       </c>
       <c r="J6">
-        <v>0.431343488347629</v>
+        <v>0.4215297972678229</v>
       </c>
       <c r="K6">
-        <v>0.3980146347351941</v>
+        <v>0.3556448908899377</v>
       </c>
       <c r="L6">
-        <v>0.0409507667303799</v>
+        <v>0.1829057873361712</v>
       </c>
       <c r="M6">
-        <v>0.6590042601602732</v>
+        <v>0.09393983350621049</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03948704829220251</v>
       </c>
       <c r="O6">
-        <v>0.4632191868756479</v>
+        <v>0.6531436724476833</v>
       </c>
       <c r="P6">
-        <v>1.025607436557295</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4710898627432627</v>
+      </c>
+      <c r="R6">
+        <v>0.9785787008365592</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6076427245845935</v>
+        <v>0.5767315594817433</v>
       </c>
       <c r="C7">
-        <v>0.1217790951846638</v>
+        <v>0.131028986464699</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3052090403434278</v>
+        <v>0.3212815370206528</v>
       </c>
       <c r="F7">
-        <v>1.484010015130892</v>
+        <v>1.446387504884171</v>
       </c>
       <c r="G7">
-        <v>0.5227958918896363</v>
+        <v>0.4646209484806008</v>
       </c>
       <c r="H7">
-        <v>0.004914305488608828</v>
+        <v>0.00448803208470494</v>
       </c>
       <c r="I7">
-        <v>0.003985173283436616</v>
+        <v>0.002776539920748888</v>
       </c>
       <c r="J7">
-        <v>0.4323323944904587</v>
+        <v>0.4182150212353264</v>
       </c>
       <c r="K7">
-        <v>0.3984890505424943</v>
+        <v>0.3546127737454015</v>
       </c>
       <c r="L7">
-        <v>0.04168514311926663</v>
+        <v>0.181198925425285</v>
       </c>
       <c r="M7">
-        <v>0.6919072779546411</v>
+        <v>0.0940815782112594</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.04021215254208643</v>
       </c>
       <c r="O7">
-        <v>0.48544232858616</v>
+        <v>0.684039540291721</v>
       </c>
       <c r="P7">
-        <v>1.015436780851211</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4939819666744896</v>
+      </c>
+      <c r="R7">
+        <v>0.9686208685625086</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.735491206656917</v>
+        <v>0.6905315570950279</v>
       </c>
       <c r="C8">
-        <v>0.1473446698293799</v>
+        <v>0.1604149225218663</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3607633630010838</v>
+        <v>0.3815753186816195</v>
       </c>
       <c r="F8">
-        <v>1.655323090556166</v>
+        <v>1.605011801426599</v>
       </c>
       <c r="G8">
-        <v>0.5488274612895339</v>
+        <v>0.4864465561295361</v>
       </c>
       <c r="H8">
-        <v>0.002483146121466717</v>
+        <v>0.002246824018881766</v>
       </c>
       <c r="I8">
-        <v>0.002413534044274357</v>
+        <v>0.001781297306274965</v>
       </c>
       <c r="J8">
-        <v>0.4383756130731626</v>
+        <v>0.414777267387997</v>
       </c>
       <c r="K8">
-        <v>0.4024854943956697</v>
+        <v>0.3528987456463319</v>
       </c>
       <c r="L8">
-        <v>0.04487938490642618</v>
+        <v>0.1751092738695021</v>
       </c>
       <c r="M8">
-        <v>0.8377182527635227</v>
+        <v>0.09653280900853112</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04339101817477298</v>
       </c>
       <c r="O8">
-        <v>0.5832248878179911</v>
+        <v>0.8231593700197948</v>
       </c>
       <c r="P8">
-        <v>0.9726243884699457</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5945101631091489</v>
+      </c>
+      <c r="R8">
+        <v>0.9273739742616824</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9885021749946361</v>
+        <v>0.9162328523066208</v>
       </c>
       <c r="C9">
-        <v>0.1974304395465651</v>
+        <v>0.2203758667841242</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4691650873994462</v>
+        <v>0.4976416145777875</v>
       </c>
       <c r="F9">
-        <v>2.000783113184923</v>
+        <v>1.928878956064381</v>
       </c>
       <c r="G9">
-        <v>0.6073045079665178</v>
+        <v>0.5270801806052248</v>
       </c>
       <c r="H9">
-        <v>0.000162707659562944</v>
+        <v>0.0001326034159627731</v>
       </c>
       <c r="I9">
-        <v>0.0007814415166684796</v>
+        <v>0.0008214997047231165</v>
       </c>
       <c r="J9">
-        <v>0.4545475446450098</v>
+        <v>0.4267911068016872</v>
       </c>
       <c r="K9">
-        <v>0.4147163610160973</v>
+        <v>0.3549780827029139</v>
       </c>
       <c r="L9">
-        <v>0.05096085431960429</v>
+        <v>0.1655691069081087</v>
       </c>
       <c r="M9">
-        <v>1.125228841052632</v>
+        <v>0.107081541141131</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.04948652683345056</v>
       </c>
       <c r="O9">
-        <v>0.7751165140956786</v>
+        <v>1.100829102953384</v>
       </c>
       <c r="P9">
-        <v>0.8946878578436213</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7914675025347293</v>
+      </c>
+      <c r="R9">
+        <v>0.8532668770500669</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.171014967988299</v>
+        <v>1.075088517973057</v>
       </c>
       <c r="C10">
-        <v>0.2346975347202971</v>
+        <v>0.2619180529222405</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5302998299143979</v>
+        <v>0.5670642707723133</v>
       </c>
       <c r="F10">
-        <v>2.218077417345015</v>
+        <v>2.123752963895939</v>
       </c>
       <c r="G10">
-        <v>0.6442601530255274</v>
+        <v>0.5668781450323621</v>
       </c>
       <c r="H10">
-        <v>0.0003123233336665976</v>
+        <v>0.000319031262308922</v>
       </c>
       <c r="I10">
-        <v>0.000992582644773421</v>
+        <v>0.001273351073564299</v>
       </c>
       <c r="J10">
-        <v>0.4637229539972765</v>
+        <v>0.4072883535172025</v>
       </c>
       <c r="K10">
-        <v>0.4202138270781717</v>
+        <v>0.3501719793126661</v>
       </c>
       <c r="L10">
-        <v>0.05504755043183618</v>
+        <v>0.1562870178263545</v>
       </c>
       <c r="M10">
-        <v>1.334019971064748</v>
+        <v>0.1147710508867057</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.05387721985546357</v>
       </c>
       <c r="O10">
-        <v>0.8977019469952765</v>
+        <v>1.294930443980093</v>
       </c>
       <c r="P10">
-        <v>0.838099919196253</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9181603203290862</v>
+      </c>
+      <c r="R10">
+        <v>0.7999600434891174</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.241064039403454</v>
+        <v>1.135554798677106</v>
       </c>
       <c r="C11">
-        <v>0.2416775206963138</v>
+        <v>0.2621464650901402</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.401558100599452</v>
+        <v>0.4389133223379744</v>
       </c>
       <c r="F11">
-        <v>1.977505860645067</v>
+        <v>1.875219401208355</v>
       </c>
       <c r="G11">
-        <v>0.5944565453602024</v>
+        <v>0.5530086633617088</v>
       </c>
       <c r="H11">
-        <v>0.01883007011853266</v>
+        <v>0.01882739603045991</v>
       </c>
       <c r="I11">
-        <v>0.001681411687131096</v>
+        <v>0.002069749194534509</v>
       </c>
       <c r="J11">
-        <v>0.4345592686426158</v>
+        <v>0.3376055774024351</v>
       </c>
       <c r="K11">
-        <v>0.3878726836203725</v>
+        <v>0.3163832688983845</v>
       </c>
       <c r="L11">
-        <v>0.06043404358260496</v>
+        <v>0.1413533277923023</v>
       </c>
       <c r="M11">
-        <v>1.403582461432109</v>
+        <v>0.1055573635426938</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06255477603059845</v>
       </c>
       <c r="O11">
-        <v>0.7893056592447039</v>
+        <v>1.347834366593816</v>
       </c>
       <c r="P11">
-        <v>0.7992971014945469</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8095940498364484</v>
+      </c>
+      <c r="R11">
+        <v>0.7746274262856261</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.265670874722332</v>
+        <v>1.159086604976551</v>
       </c>
       <c r="C12">
-        <v>0.2379507305177526</v>
+        <v>0.2536693599306545</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2960400199116862</v>
+        <v>0.329351974414962</v>
       </c>
       <c r="F12">
-        <v>1.744033997979443</v>
+        <v>1.64498759429128</v>
       </c>
       <c r="G12">
-        <v>0.5489912141087672</v>
+        <v>0.5263730709274483</v>
       </c>
       <c r="H12">
-        <v>0.05743906973398083</v>
+        <v>0.05743670484510233</v>
       </c>
       <c r="I12">
-        <v>0.001722469862900589</v>
+        <v>0.002102752423624565</v>
       </c>
       <c r="J12">
-        <v>0.410065695584791</v>
+        <v>0.3033196584668616</v>
       </c>
       <c r="K12">
-        <v>0.3624982406604005</v>
+        <v>0.2939248957722036</v>
       </c>
       <c r="L12">
-        <v>0.07190356753036653</v>
+        <v>0.1327276127822543</v>
       </c>
       <c r="M12">
-        <v>1.418838819217171</v>
+        <v>0.0977862237331415</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07698056567263478</v>
       </c>
       <c r="O12">
-        <v>0.678279703141186</v>
+        <v>1.356498389408046</v>
       </c>
       <c r="P12">
-        <v>0.7842015957584421</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6970926597050564</v>
+      </c>
+      <c r="R12">
+        <v>0.7709220561654284</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.252496651427379</v>
+        <v>1.153353196818614</v>
       </c>
       <c r="C13">
-        <v>0.227305780018412</v>
+        <v>0.2408054087757847</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2038887132097571</v>
+        <v>0.2295464968728993</v>
       </c>
       <c r="F13">
-        <v>1.500168431848167</v>
+        <v>1.41461570071715</v>
       </c>
       <c r="G13">
-        <v>0.5006937720887947</v>
+        <v>0.479597516538135</v>
       </c>
       <c r="H13">
-        <v>0.1131504338857212</v>
+        <v>0.1131509414484242</v>
       </c>
       <c r="I13">
-        <v>0.001594686542788715</v>
+        <v>0.001968199242344149</v>
       </c>
       <c r="J13">
-        <v>0.3858956870523969</v>
+        <v>0.2932481204165924</v>
       </c>
       <c r="K13">
-        <v>0.3385109447369565</v>
+        <v>0.2773998040064498</v>
       </c>
       <c r="L13">
-        <v>0.08841385402624269</v>
+        <v>0.1274235111705195</v>
       </c>
       <c r="M13">
-        <v>1.391814296235168</v>
+        <v>0.09043446783373099</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09561980066556686</v>
       </c>
       <c r="O13">
-        <v>0.5603669603616055</v>
+        <v>1.333606522238455</v>
       </c>
       <c r="P13">
-        <v>0.7844995802207251</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5764746028677479</v>
+      </c>
+      <c r="R13">
+        <v>0.7799191467713733</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.225418132715646</v>
+        <v>1.135305639703347</v>
       </c>
       <c r="C14">
-        <v>0.2170841321837713</v>
+        <v>0.2300626839160174</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1483587265811792</v>
+        <v>0.167872172673615</v>
       </c>
       <c r="F14">
-        <v>1.327474694178321</v>
+        <v>1.254933227737055</v>
       </c>
       <c r="G14">
-        <v>0.465474327387696</v>
+        <v>0.4389244925521041</v>
       </c>
       <c r="H14">
-        <v>0.1625202786884614</v>
+        <v>0.1625184502873935</v>
       </c>
       <c r="I14">
-        <v>0.001528526446911371</v>
+        <v>0.001906399662389369</v>
       </c>
       <c r="J14">
-        <v>0.3690146161523558</v>
+        <v>0.2949088305043546</v>
       </c>
       <c r="K14">
-        <v>0.3221804956091106</v>
+        <v>0.2679814631548219</v>
       </c>
       <c r="L14">
-        <v>0.1031349667100372</v>
+        <v>0.1248896819704886</v>
       </c>
       <c r="M14">
-        <v>1.353633513701112</v>
+        <v>0.0854086412874473</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1111490334228051</v>
       </c>
       <c r="O14">
-        <v>0.4766205095666152</v>
+        <v>1.302980738652053</v>
       </c>
       <c r="P14">
-        <v>0.7920170063962697</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4904002359484707</v>
+      </c>
+      <c r="R14">
+        <v>0.7914223670306875</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.209738503348689</v>
+        <v>1.123547277019725</v>
       </c>
       <c r="C15">
-        <v>0.2135292988321282</v>
+        <v>0.2267940120640759</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1357116565143883</v>
+        <v>0.1533883585838254</v>
       </c>
       <c r="F15">
-        <v>1.281402899198937</v>
+        <v>1.213624161305859</v>
       </c>
       <c r="G15">
-        <v>0.455529623135817</v>
+        <v>0.4251211596910736</v>
       </c>
       <c r="H15">
-        <v>0.1750502420923112</v>
+        <v>0.1750456432294243</v>
       </c>
       <c r="I15">
-        <v>0.001600921489369078</v>
+        <v>0.001997815929039248</v>
       </c>
       <c r="J15">
-        <v>0.364595180357739</v>
+        <v>0.2989128731290549</v>
       </c>
       <c r="K15">
-        <v>0.3179620374230012</v>
+        <v>0.2662556630157304</v>
       </c>
       <c r="L15">
-        <v>0.1068033025966528</v>
+        <v>0.1246651189572656</v>
       </c>
       <c r="M15">
-        <v>1.335124604358327</v>
+        <v>0.08407403234966893</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1147334189697631</v>
       </c>
       <c r="O15">
-        <v>0.4541922802727143</v>
+        <v>1.288322300712053</v>
       </c>
       <c r="P15">
-        <v>0.7964918865462352</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4672010491253644</v>
+      </c>
+      <c r="R15">
+        <v>0.7960893386249985</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.13231179367051</v>
+        <v>1.060480663018467</v>
       </c>
       <c r="C16">
-        <v>0.2003559353315865</v>
+        <v>0.2166984267619938</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1313000137321367</v>
+        <v>0.1453921333401915</v>
       </c>
       <c r="F16">
-        <v>1.242008356947039</v>
+        <v>1.1882999760156</v>
       </c>
       <c r="G16">
-        <v>0.4484497891675261</v>
+        <v>0.3973501621370019</v>
       </c>
       <c r="H16">
-        <v>0.1624493739867603</v>
+        <v>0.1624201846474023</v>
       </c>
       <c r="I16">
-        <v>0.001580438827229358</v>
+        <v>0.001945315251544955</v>
       </c>
       <c r="J16">
-        <v>0.3648711853594051</v>
+        <v>0.3339539674057121</v>
       </c>
       <c r="K16">
-        <v>0.3195714952846984</v>
+        <v>0.2743545314368703</v>
       </c>
       <c r="L16">
-        <v>0.1011924475038199</v>
+        <v>0.1294912092933753</v>
       </c>
       <c r="M16">
-        <v>1.250542004197086</v>
+        <v>0.08406968541020277</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1070403270752465</v>
       </c>
       <c r="O16">
-        <v>0.4293821333054311</v>
+        <v>1.220392917640339</v>
       </c>
       <c r="P16">
-        <v>0.8182889732241652</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4405247899188609</v>
+      </c>
+      <c r="R16">
+        <v>0.8112310919672936</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.087317463794335</v>
+        <v>1.020648082730048</v>
       </c>
       <c r="C17">
-        <v>0.1957338046360491</v>
+        <v>0.2140095181836443</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1554661218530278</v>
+        <v>0.1696835925643789</v>
       </c>
       <c r="F17">
-        <v>1.3014274086146</v>
+        <v>1.251111756605738</v>
       </c>
       <c r="G17">
-        <v>0.4615400833487371</v>
+        <v>0.4000694576782209</v>
       </c>
       <c r="H17">
-        <v>0.1247534713943139</v>
+        <v>0.1247055702751538</v>
       </c>
       <c r="I17">
-        <v>0.001646686969029254</v>
+        <v>0.001977734150621302</v>
       </c>
       <c r="J17">
-        <v>0.3740047087212872</v>
+        <v>0.3578834533883963</v>
       </c>
       <c r="K17">
-        <v>0.3293786283185547</v>
+        <v>0.2851674651542453</v>
       </c>
       <c r="L17">
-        <v>0.08849486183877531</v>
+        <v>0.1346648114927635</v>
       </c>
       <c r="M17">
-        <v>1.206028428955904</v>
+        <v>0.0864048515800242</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.09287210018106862</v>
       </c>
       <c r="O17">
-        <v>0.4535762218395547</v>
+        <v>1.182638706292096</v>
       </c>
       <c r="P17">
-        <v>0.8310330817261509</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4645572369550379</v>
+      </c>
+      <c r="R17">
+        <v>0.818359114378211</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.067156699751422</v>
+        <v>0.9997492609640801</v>
       </c>
       <c r="C18">
-        <v>0.1970706164796212</v>
+        <v>0.2175906389267794</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2153184177419192</v>
+        <v>0.2321685852565807</v>
       </c>
       <c r="F18">
-        <v>1.460970908613177</v>
+        <v>1.407373754451754</v>
       </c>
       <c r="G18">
-        <v>0.4956324499327565</v>
+        <v>0.4255167491874516</v>
       </c>
       <c r="H18">
-        <v>0.07187174833452303</v>
+        <v>0.07182174829984689</v>
       </c>
       <c r="I18">
-        <v>0.001439593926630955</v>
+        <v>0.00170786330431838</v>
       </c>
       <c r="J18">
-        <v>0.3928235478632445</v>
+        <v>0.3812019181035069</v>
       </c>
       <c r="K18">
-        <v>0.3488260851490388</v>
+        <v>0.3018424043679246</v>
       </c>
       <c r="L18">
-        <v>0.07177271205024738</v>
+        <v>0.1415916810590154</v>
       </c>
       <c r="M18">
-        <v>1.191223769044655</v>
+        <v>0.0917521902792231</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07472451203532771</v>
       </c>
       <c r="O18">
-        <v>0.5263653832792272</v>
+        <v>1.169742752885725</v>
       </c>
       <c r="P18">
-        <v>0.8396547722718637</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5384496773472591</v>
+      </c>
+      <c r="R18">
+        <v>0.8205596871752565</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.063483674731486</v>
+        <v>0.9916319644735836</v>
       </c>
       <c r="C19">
-        <v>0.2049469173190772</v>
+        <v>0.2283655894167396</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.313988572218264</v>
+        <v>0.3354230245870866</v>
       </c>
       <c r="F19">
-        <v>1.698210848441022</v>
+        <v>1.636760317200896</v>
       </c>
       <c r="G19">
-        <v>0.5418848741979474</v>
+        <v>0.4633014284510324</v>
       </c>
       <c r="H19">
-        <v>0.02643804485003898</v>
+        <v>0.02640397763022406</v>
       </c>
       <c r="I19">
-        <v>0.001549483880647351</v>
+        <v>0.001853923297026938</v>
       </c>
       <c r="J19">
-        <v>0.4167662705754651</v>
+        <v>0.4037535969424368</v>
       </c>
       <c r="K19">
-        <v>0.3729751425893433</v>
+        <v>0.3209326804378989</v>
       </c>
       <c r="L19">
-        <v>0.05855790475151146</v>
+        <v>0.1489899291633563</v>
       </c>
       <c r="M19">
-        <v>1.199812125836644</v>
+        <v>0.0986956151918541</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.05993768876102479</v>
       </c>
       <c r="O19">
-        <v>0.6404760215222751</v>
+        <v>1.177440336030202</v>
       </c>
       <c r="P19">
-        <v>0.8472838184826735</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6546030364683091</v>
+      </c>
+      <c r="R19">
+        <v>0.8211615800448122</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.115103388293761</v>
+        <v>1.028208653743064</v>
       </c>
       <c r="C20">
-        <v>0.2278463038053076</v>
+        <v>0.2559340928927014</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5157660375672179</v>
+        <v>0.5482855821588473</v>
       </c>
       <c r="F20">
-        <v>2.15234982220386</v>
+        <v>2.068893984469838</v>
       </c>
       <c r="G20">
-        <v>0.6271866507762098</v>
+        <v>0.5407072614033552</v>
       </c>
       <c r="H20">
-        <v>0.0001412837893370877</v>
+        <v>0.00014767300182017</v>
       </c>
       <c r="I20">
-        <v>0.001619223020363769</v>
+        <v>0.002016821480639308</v>
       </c>
       <c r="J20">
-        <v>0.4575388364425237</v>
+        <v>0.4245265144190569</v>
       </c>
       <c r="K20">
-        <v>0.4137418331925069</v>
+        <v>0.3492788280721015</v>
       </c>
       <c r="L20">
-        <v>0.05388672953550433</v>
+        <v>0.1579024971977638</v>
       </c>
       <c r="M20">
-        <v>1.276647048251334</v>
+        <v>0.1117819610307897</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.05270127433285055</v>
       </c>
       <c r="O20">
-        <v>0.866165219615624</v>
+        <v>1.24595199515835</v>
       </c>
       <c r="P20">
-        <v>0.8504223204185699</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8850628971236745</v>
+      </c>
+      <c r="R20">
+        <v>0.8131188887328662</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.258038662670884</v>
+        <v>1.140030314121418</v>
       </c>
       <c r="C21">
-        <v>0.2584185041227158</v>
+        <v>0.2806475451534141</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5928781999635717</v>
+        <v>0.6443576892045826</v>
       </c>
       <c r="F21">
-        <v>2.383996762749177</v>
+        <v>2.256403297934284</v>
       </c>
       <c r="G21">
-        <v>0.6695332165352994</v>
+        <v>0.6333718944994189</v>
       </c>
       <c r="H21">
-        <v>0.0006442368807249022</v>
+        <v>0.0006204735627821645</v>
       </c>
       <c r="I21">
-        <v>0.002073618258899401</v>
+        <v>0.002497413399098036</v>
       </c>
       <c r="J21">
-        <v>0.4716837074472693</v>
+        <v>0.3427785574062128</v>
       </c>
       <c r="K21">
-        <v>0.4253785225362137</v>
+        <v>0.3405612871701997</v>
       </c>
       <c r="L21">
-        <v>0.05741016820955624</v>
+        <v>0.1493338165350941</v>
       </c>
       <c r="M21">
-        <v>1.442007677055472</v>
+        <v>0.1161196240195395</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.05588678933832902</v>
       </c>
       <c r="O21">
-        <v>0.9906678898937997</v>
+        <v>1.376212532207347</v>
       </c>
       <c r="P21">
-        <v>0.8116737383350578</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.015644541641237</v>
+      </c>
+      <c r="R21">
+        <v>0.7721177377386459</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.354186150816844</v>
+        <v>1.21462859270784</v>
       </c>
       <c r="C22">
-        <v>0.2767595299682881</v>
+        <v>0.2941051711295302</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6324735997211945</v>
+        <v>0.697228193781072</v>
       </c>
       <c r="F22">
-        <v>2.519081988414172</v>
+        <v>2.360722138080519</v>
       </c>
       <c r="G22">
-        <v>0.6968981175404565</v>
+        <v>0.701575341207004</v>
       </c>
       <c r="H22">
-        <v>0.001423055205499235</v>
+        <v>0.001335942710058768</v>
       </c>
       <c r="I22">
-        <v>0.002355251380079082</v>
+        <v>0.002639766529467735</v>
       </c>
       <c r="J22">
-        <v>0.4808403142114202</v>
+        <v>0.294563094044463</v>
       </c>
       <c r="K22">
-        <v>0.4332745420520823</v>
+        <v>0.3343303834455611</v>
       </c>
       <c r="L22">
-        <v>0.05961537499413838</v>
+        <v>0.1437822730115634</v>
       </c>
       <c r="M22">
-        <v>1.549987992765864</v>
+        <v>0.1189480314923941</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.05801172810578148</v>
       </c>
       <c r="O22">
-        <v>1.061726804340786</v>
+        <v>1.458935751982068</v>
       </c>
       <c r="P22">
-        <v>0.7868650672153397</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.090746236186177</v>
+      </c>
+      <c r="R22">
+        <v>0.7464882827729378</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.305928849654208</v>
+        <v>1.179239482667953</v>
       </c>
       <c r="C23">
-        <v>0.2657600710961958</v>
+        <v>0.2870406508249346</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6104028053219537</v>
+        <v>0.6664289133734655</v>
       </c>
       <c r="F23">
-        <v>2.449422114654908</v>
+        <v>2.310780233961609</v>
       </c>
       <c r="G23">
-        <v>0.6848347692064465</v>
+        <v>0.6598640050667228</v>
       </c>
       <c r="H23">
-        <v>0.0009731483858799184</v>
+        <v>0.0009262125265978582</v>
       </c>
       <c r="I23">
-        <v>0.001885470673768097</v>
+        <v>0.002194270744596771</v>
       </c>
       <c r="J23">
-        <v>0.4772429678805707</v>
+        <v>0.3284215192638413</v>
       </c>
       <c r="K23">
-        <v>0.4308441128811111</v>
+        <v>0.3405759937916173</v>
       </c>
       <c r="L23">
-        <v>0.05847311786714049</v>
+        <v>0.1476952361296817</v>
       </c>
       <c r="M23">
-        <v>1.493230011400868</v>
+        <v>0.1186524922554959</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.05689607309309608</v>
       </c>
       <c r="O23">
-        <v>1.023192601102629</v>
+        <v>1.418884849945727</v>
       </c>
       <c r="P23">
-        <v>0.800858701896221</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.049726578156282</v>
+      </c>
+      <c r="R23">
+        <v>0.760624750419773</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.118195800936007</v>
+        <v>1.030712470276626</v>
       </c>
       <c r="C24">
-        <v>0.2266274281861769</v>
+        <v>0.2549534847079258</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5286793377043466</v>
+        <v>0.5616792524483856</v>
       </c>
       <c r="F24">
-        <v>2.184054840028367</v>
+        <v>2.099685564760534</v>
       </c>
       <c r="G24">
-        <v>0.6363962448336196</v>
+        <v>0.5482555971072145</v>
       </c>
       <c r="H24">
-        <v>3.475638095329359E-05</v>
+        <v>4.243886878629866E-05</v>
       </c>
       <c r="I24">
-        <v>0.001134805889559942</v>
+        <v>0.001434495823811943</v>
       </c>
       <c r="J24">
-        <v>0.462300245800634</v>
+        <v>0.4294461936345755</v>
       </c>
       <c r="K24">
-        <v>0.4193800625882105</v>
+        <v>0.3539930998857486</v>
       </c>
       <c r="L24">
-        <v>0.0540776703105823</v>
+        <v>0.1597149209623403</v>
       </c>
       <c r="M24">
-        <v>1.277514517496428</v>
+        <v>0.1135059395478137</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.05264299253530869</v>
       </c>
       <c r="O24">
-        <v>0.8787718079686826</v>
+        <v>1.246875854328948</v>
       </c>
       <c r="P24">
-        <v>0.8539089479922186</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8978954473389322</v>
+      </c>
+      <c r="R24">
+        <v>0.8150377291148527</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9156653727819446</v>
+        <v>0.85211053513612</v>
       </c>
       <c r="C25">
-        <v>0.1854456267368647</v>
+        <v>0.2064647267070825</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4411158911202122</v>
+        <v>0.4666742242754651</v>
       </c>
       <c r="F25">
-        <v>1.902705083310181</v>
+        <v>1.838768136515</v>
       </c>
       <c r="G25">
-        <v>0.5870613109151037</v>
+        <v>0.5085347752524427</v>
       </c>
       <c r="H25">
-        <v>0.0005089834491065481</v>
+        <v>0.0004396117354026341</v>
       </c>
       <c r="I25">
-        <v>0.001442321802795021</v>
+        <v>0.001423381146463676</v>
       </c>
       <c r="J25">
-        <v>0.4478588913457315</v>
+        <v>0.4280545609512956</v>
       </c>
       <c r="K25">
-        <v>0.408417933241445</v>
+        <v>0.352754986162676</v>
       </c>
       <c r="L25">
-        <v>0.04928431392709709</v>
+        <v>0.1674969540917175</v>
       </c>
       <c r="M25">
-        <v>1.046009090534881</v>
+        <v>0.1031958214999307</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.04784023436591944</v>
       </c>
       <c r="O25">
-        <v>0.7239398128497001</v>
+        <v>1.0261475526124</v>
       </c>
       <c r="P25">
-        <v>0.9138509621614901</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7387192955016388</v>
+      </c>
+      <c r="R25">
+        <v>0.8722780228901958</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
